--- a/dummydata.xlsx
+++ b/dummydata.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/Repos/excel-file-ops/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3437DCC6-24C4-D844-9182-690623A5FC09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92732C-F5B5-4946-A88B-C3C46A041338}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="9" xr2:uid="{65CD8C76-6028-444A-B1B5-7B34B2453F86}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{65CD8C76-6028-444A-B1B5-7B34B2453F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="1048">
   <si>
     <t>Col1</t>
   </si>
@@ -1524,607 +1524,304 @@
     <t>Saint-Pierre</t>
   </si>
   <si>
-    <t>Col4</t>
-  </si>
-  <si>
     <t>Col5</t>
   </si>
   <si>
-    <t xml:space="preserve">;6304617805344331=32076901? </t>
-  </si>
-  <si>
     <t>Catherine Q. Sykes</t>
   </si>
   <si>
-    <t xml:space="preserve">;4026730535437911=88054262? </t>
-  </si>
-  <si>
     <t>Blaine J. Strong</t>
   </si>
   <si>
-    <t>;4508439980816671=21031122?9</t>
-  </si>
-  <si>
     <t>Gloria O. Hogan</t>
   </si>
   <si>
-    <t>;6767198424222059=74105608773?7</t>
-  </si>
-  <si>
     <t>Tyler Espinoza</t>
   </si>
   <si>
-    <t xml:space="preserve">;201443241590842=90045442843? </t>
-  </si>
-  <si>
     <t>Jillian S. Stanley</t>
   </si>
   <si>
-    <t xml:space="preserve">;6334644084335404=1705396818? </t>
-  </si>
-  <si>
     <t>Tarik G. Conner</t>
   </si>
   <si>
-    <t xml:space="preserve">;4175007917469138=24016364? </t>
-  </si>
-  <si>
     <t>Nicholas T. Gentry</t>
   </si>
   <si>
-    <t>;5273046549059014=3004553466?2</t>
-  </si>
-  <si>
     <t>Sierra U. Burnett</t>
   </si>
   <si>
-    <t xml:space="preserve">;30100204745873=99118509? </t>
-  </si>
-  <si>
     <t>Stuart K. Short</t>
   </si>
   <si>
-    <t xml:space="preserve">;4508250698236320=9608285786? </t>
-  </si>
-  <si>
     <t>Chiquita M. Russell</t>
   </si>
   <si>
-    <t>;6333469158095556=11097473951?7</t>
-  </si>
-  <si>
     <t>Xaviera B. Jacobson</t>
   </si>
   <si>
-    <t xml:space="preserve">;6304212894304568=29054637196? </t>
-  </si>
-  <si>
     <t>Zahir Andrews</t>
   </si>
   <si>
-    <t>;201451067106304=1610959474?6</t>
-  </si>
-  <si>
     <t>Carl Wilder</t>
   </si>
   <si>
-    <t xml:space="preserve">;344052393176793=2110794973? </t>
-  </si>
-  <si>
     <t>Emmanuel Kane</t>
   </si>
   <si>
-    <t xml:space="preserve">;180006159535359=3107141615? </t>
-  </si>
-  <si>
     <t>Wyoming Stein</t>
   </si>
   <si>
-    <t>;4556963027435=1312537902?2</t>
-  </si>
-  <si>
     <t>Camden D. Welch</t>
   </si>
   <si>
-    <t xml:space="preserve">;4917163027981497=89052662794? </t>
-  </si>
-  <si>
     <t>Kuame Perry</t>
   </si>
   <si>
-    <t>;201400106977209=74127978?6</t>
-  </si>
-  <si>
     <t>Colby P. Fowler</t>
   </si>
   <si>
-    <t xml:space="preserve">;375248554966939=82061162905? </t>
-  </si>
-  <si>
     <t>Oscar L. Riddle</t>
   </si>
   <si>
-    <t xml:space="preserve">;377045700510951=73102473? </t>
-  </si>
-  <si>
     <t>Beverly Gallegos</t>
   </si>
   <si>
-    <t>;180098568563759=2105794823?6</t>
-  </si>
-  <si>
     <t>Dolan Owens</t>
   </si>
   <si>
-    <t>;309030201402042=8705383749?5</t>
-  </si>
-  <si>
     <t>Elmo Roy</t>
   </si>
   <si>
-    <t xml:space="preserve">;214974022789596=0107931774? </t>
-  </si>
-  <si>
     <t>Alice Crosby</t>
   </si>
   <si>
-    <t>;4844494361666404=8307740282?9</t>
-  </si>
-  <si>
     <t>Illiana Z. Gallagher</t>
   </si>
   <si>
-    <t xml:space="preserve">;5446541599101395=85057933? </t>
-  </si>
-  <si>
     <t>Forrest K. Galloway</t>
   </si>
   <si>
-    <t xml:space="preserve">;4911256634741951=1704989600? </t>
-  </si>
-  <si>
     <t>Germane Berger</t>
   </si>
   <si>
-    <t>;214967020177251=9805532293?5</t>
-  </si>
-  <si>
     <t>Oprah J. Hernandez</t>
   </si>
   <si>
-    <t xml:space="preserve">;6466250478937340=92098432933? </t>
-  </si>
-  <si>
     <t>Darius A. Sellers</t>
   </si>
   <si>
-    <t xml:space="preserve">;36789996190282=99091207? </t>
-  </si>
-  <si>
     <t>Ulysses N. Rivers</t>
   </si>
   <si>
-    <t>;6767455710624384=06084711683?3</t>
-  </si>
-  <si>
     <t>Mikayla Hogan</t>
   </si>
   <si>
-    <t xml:space="preserve">;379572690215018=9712227607? </t>
-  </si>
-  <si>
     <t>Eliana S. Valenzuela</t>
   </si>
   <si>
-    <t>;4485023944043=2510730810?4</t>
-  </si>
-  <si>
     <t>Thane Q. Valencia</t>
   </si>
   <si>
-    <t>;575325460260=30092177?2</t>
-  </si>
-  <si>
     <t>Jamalia Mcdowell</t>
   </si>
   <si>
-    <t xml:space="preserve">;30424756422487=0407386477? </t>
-  </si>
-  <si>
     <t>Shellie Rush</t>
   </si>
   <si>
-    <t>;5432182725826195=23045743165?9</t>
-  </si>
-  <si>
     <t>Abel Underwood</t>
   </si>
   <si>
-    <t>;180007084228706=1506377379?2</t>
-  </si>
-  <si>
     <t>Hoyt G. Moses</t>
   </si>
   <si>
-    <t xml:space="preserve">;6464395707334181=70026027465? </t>
-  </si>
-  <si>
     <t>Derek Walker</t>
   </si>
   <si>
-    <t>;310901843555198=13046357314?3</t>
-  </si>
-  <si>
     <t>Tamekah I. Gilbert</t>
   </si>
   <si>
-    <t>;36863096455455=19111792050?8</t>
-  </si>
-  <si>
     <t>Lars Nelson</t>
   </si>
   <si>
-    <t xml:space="preserve">;30018586375707=81037497? </t>
-  </si>
-  <si>
     <t>Sawyer D. Ortega</t>
   </si>
   <si>
-    <t>;5460328564347513=04066037679?7</t>
-  </si>
-  <si>
     <t>April Barber</t>
   </si>
   <si>
-    <t xml:space="preserve">;201426704137698=30081252? </t>
-  </si>
-  <si>
     <t>Uriel Clemons</t>
   </si>
   <si>
-    <t xml:space="preserve">;4844404800231439=1701305112? </t>
-  </si>
-  <si>
     <t>Jonah X. Emerson</t>
   </si>
   <si>
-    <t xml:space="preserve">;4532093602769=21121581? </t>
-  </si>
-  <si>
     <t>Juliet Douglas</t>
   </si>
   <si>
-    <t xml:space="preserve">;6706791248555706=3603348624? </t>
-  </si>
-  <si>
     <t>Nomlanga Fitzpatrick</t>
   </si>
   <si>
-    <t>;36256642082552=1008888422?1</t>
-  </si>
-  <si>
     <t>Howard O. Porter</t>
   </si>
   <si>
-    <t>;5230334893948608=99019541752?8</t>
-  </si>
-  <si>
     <t>Nero Lawrence</t>
   </si>
   <si>
-    <t xml:space="preserve">;30428012808603=70112032472? </t>
-  </si>
-  <si>
     <t>Ava U. Calderon</t>
   </si>
   <si>
-    <t xml:space="preserve">;309892999908641=25096167577? </t>
-  </si>
-  <si>
     <t>Baxter X. Foster</t>
   </si>
   <si>
-    <t>;30211594619196=9104829834?8</t>
-  </si>
-  <si>
     <t>Cullen E. Albert</t>
   </si>
   <si>
-    <t xml:space="preserve">;36918779171009=95077368? </t>
-  </si>
-  <si>
     <t>Amery Z. Brooks</t>
   </si>
   <si>
-    <t xml:space="preserve">;676178440118=32041218823? </t>
-  </si>
-  <si>
     <t>Daria U. Wells</t>
   </si>
   <si>
-    <t>;4065306653618=29036748230?1</t>
-  </si>
-  <si>
     <t>Ruby Serrano</t>
   </si>
   <si>
-    <t xml:space="preserve">;6767107215155337=0305114756? </t>
-  </si>
-  <si>
     <t>Samuel Harrington</t>
   </si>
   <si>
-    <t>;6472753291035962=85084428?2</t>
-  </si>
-  <si>
     <t>Benjamin Johns</t>
   </si>
   <si>
-    <t xml:space="preserve">;574982572293=84045981886? </t>
-  </si>
-  <si>
     <t>Leo Huff</t>
   </si>
   <si>
-    <t xml:space="preserve">;5417066415736039=78046018? </t>
-  </si>
-  <si>
     <t>Britanni F. Spence</t>
   </si>
   <si>
-    <t xml:space="preserve">;4024007189190=01042313925? </t>
-  </si>
-  <si>
     <t>Isaac V. Duffy</t>
   </si>
   <si>
-    <t>;6333075568871617=80022237?6</t>
-  </si>
-  <si>
     <t>Avram P. Mathews</t>
   </si>
   <si>
-    <t>;318321213152363=09062825?4</t>
-  </si>
-  <si>
     <t>Aurora Freeman</t>
   </si>
   <si>
-    <t>;4903625215390133=12028035?1</t>
-  </si>
-  <si>
     <t>Paki U. Leblanc</t>
   </si>
   <si>
-    <t>;214959347390683=82042398948?8</t>
-  </si>
-  <si>
     <t>Virginia Atkins</t>
   </si>
   <si>
-    <t xml:space="preserve">;36261573841596=99015149156? </t>
-  </si>
-  <si>
     <t>Shad Wolf</t>
   </si>
   <si>
-    <t>;348050702088713=01073077?6</t>
-  </si>
-  <si>
     <t>Avram Gregory</t>
   </si>
   <si>
-    <t xml:space="preserve">;576283103058=8809123607? </t>
-  </si>
-  <si>
     <t>Neil Y. Hogan</t>
   </si>
   <si>
-    <t>;309206381647586=11069204?1</t>
-  </si>
-  <si>
     <t>Rajah L. Fulton</t>
   </si>
   <si>
-    <t xml:space="preserve">;5558614674080539=88038488? </t>
-  </si>
-  <si>
     <t>Hollee L. Richard</t>
   </si>
   <si>
-    <t xml:space="preserve">;347868288652888=88117632406? </t>
-  </si>
-  <si>
     <t>Travis F. Mcgowan</t>
   </si>
   <si>
-    <t>;6450040347343913=2411892991?5</t>
-  </si>
-  <si>
     <t>Glenna Lowery</t>
   </si>
   <si>
-    <t>;213157715930161=04012742083?9</t>
-  </si>
-  <si>
     <t>Edward Stevenson</t>
   </si>
   <si>
-    <t>;36033769634311=9007161943?2</t>
-  </si>
-  <si>
     <t>Haley Riggs</t>
   </si>
   <si>
-    <t xml:space="preserve">;36068485512201=97034942? </t>
-  </si>
-  <si>
     <t>Salvador O. Herring</t>
   </si>
   <si>
-    <t xml:space="preserve">;4240318595384=82039916? </t>
-  </si>
-  <si>
     <t>Noah Kerr</t>
   </si>
   <si>
-    <t xml:space="preserve">;36257365873292=84015649344? </t>
-  </si>
-  <si>
     <t>Rigel V. Baird</t>
   </si>
   <si>
-    <t xml:space="preserve">;36210881634888=22027945? </t>
-  </si>
-  <si>
     <t>Hilel Z. Sawyer</t>
   </si>
   <si>
-    <t>;4911174282202335=3308382896?9</t>
-  </si>
-  <si>
     <t>Maxwell I. Anthony</t>
   </si>
   <si>
-    <t xml:space="preserve">;201448536854712=98088179963? </t>
-  </si>
-  <si>
     <t>Dillon Z. Tanner</t>
   </si>
   <si>
-    <t>;343974096030285=91082829150?9</t>
-  </si>
-  <si>
     <t>Lillian H. Crawford</t>
   </si>
   <si>
-    <t xml:space="preserve">;5520043994020915=2209237133? </t>
-  </si>
-  <si>
     <t>Christopher Farley</t>
   </si>
   <si>
-    <t xml:space="preserve">;4532592979395=0212506626? </t>
-  </si>
-  <si>
     <t>Magee K. Rios</t>
   </si>
   <si>
-    <t xml:space="preserve">;4532025385038=33062175770? </t>
-  </si>
-  <si>
     <t>Driscoll Rodgers</t>
   </si>
   <si>
-    <t xml:space="preserve">;5542525691554968=3403391122? </t>
-  </si>
-  <si>
     <t>Phelan Marquez</t>
   </si>
   <si>
-    <t xml:space="preserve">;36371460911384=09013714916? </t>
-  </si>
-  <si>
     <t>Ross Knowles</t>
   </si>
   <si>
-    <t>;36516774466562=72025762930?9</t>
-  </si>
-  <si>
     <t>Dorian Y. Emerson</t>
   </si>
   <si>
-    <t xml:space="preserve">;581057835976=72109972? </t>
-  </si>
-  <si>
     <t>Plato J. Anderson</t>
   </si>
   <si>
-    <t>;4903596292020788=3211138129?8</t>
-  </si>
-  <si>
     <t>Richard I. Weeks</t>
   </si>
   <si>
-    <t xml:space="preserve">;4024007160803=20052074114? </t>
-  </si>
-  <si>
     <t>Hu C. Calderon</t>
   </si>
   <si>
-    <t>;4556116838068=24062565991?2</t>
-  </si>
-  <si>
     <t>Scarlett Cunningham</t>
   </si>
   <si>
-    <t xml:space="preserve">;6334454328769768=3105658775? </t>
-  </si>
-  <si>
     <t>Len D. Fernandez</t>
   </si>
   <si>
-    <t xml:space="preserve">;4844138293147930=1804213398? </t>
-  </si>
-  <si>
     <t>Colton P. Chan</t>
   </si>
   <si>
-    <t>;214993822661128=94087883363?4</t>
-  </si>
-  <si>
     <t>Dawn E. Watts</t>
   </si>
   <si>
-    <t xml:space="preserve">;315226911122092=2807939991? </t>
-  </si>
-  <si>
     <t>Selma Castillo</t>
   </si>
   <si>
-    <t>;341784939517998=9601691541?1</t>
-  </si>
-  <si>
     <t>Azalia E. Clayton</t>
   </si>
   <si>
-    <t xml:space="preserve">;5314938776668676=87062485926? </t>
-  </si>
-  <si>
     <t>Basil V. Calhoun</t>
   </si>
   <si>
-    <t>;6771534213258678=9104370719?2</t>
-  </si>
-  <si>
     <t>Mannix T. James</t>
   </si>
   <si>
-    <t>;676224247798=15012843789?3</t>
-  </si>
-  <si>
     <t>Gage Baldwin</t>
   </si>
   <si>
-    <t>;201413173607682=9505234719?6</t>
-  </si>
-  <si>
     <t>Cadman B. Gaines</t>
   </si>
   <si>
-    <t>;30141755779507=9904113148?5</t>
-  </si>
-  <si>
     <t>Melvin Talley</t>
   </si>
   <si>
-    <t>;4716710017564=78064208?1</t>
-  </si>
-  <si>
     <t>Maite G. Hinton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;4903976228339132=2709835326? </t>
   </si>
   <si>
     <t>Chantale Madden</t>
@@ -4966,7 +4663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA2D931-EA44-2643-B6F2-16ED639E11FF}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -4977,13 +4674,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
       <c r="B1" t="s">
-        <v>892</v>
+        <v>791</v>
       </c>
       <c r="C1" t="s">
-        <v>922</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4994,7 +4691,7 @@
         <v>575290</v>
       </c>
       <c r="C2" t="s">
-        <v>924</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5005,7 +4702,7 @@
         <v>23019</v>
       </c>
       <c r="C3" t="s">
-        <v>925</v>
+        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5016,7 +4713,7 @@
         <v>8216</v>
       </c>
       <c r="C4" t="s">
-        <v>926</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5027,7 +4724,7 @@
         <v>5273</v>
       </c>
       <c r="C5" t="s">
-        <v>927</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5038,7 +4735,7 @@
         <v>29932</v>
       </c>
       <c r="C6" t="s">
-        <v>928</v>
+        <v>827</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5049,7 +4746,7 @@
         <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>929</v>
+        <v>828</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -5060,7 +4757,7 @@
         <v>60192</v>
       </c>
       <c r="C8" t="s">
-        <v>931</v>
+        <v>830</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -5071,7 +4768,7 @@
         <v>9674</v>
       </c>
       <c r="C9" t="s">
-        <v>932</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,10 +4776,10 @@
         <v>1605082157299</v>
       </c>
       <c r="B10" t="s">
-        <v>893</v>
+        <v>792</v>
       </c>
       <c r="C10" t="s">
-        <v>933</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5093,7 +4790,7 @@
         <v>27105</v>
       </c>
       <c r="C11" t="s">
-        <v>935</v>
+        <v>834</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5115,7 +4812,7 @@
         <v>6503</v>
       </c>
       <c r="C13" t="s">
-        <v>936</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,10 +4820,10 @@
         <v>1689011611099</v>
       </c>
       <c r="B14" t="s">
-        <v>894</v>
+        <v>793</v>
       </c>
       <c r="C14" t="s">
-        <v>937</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,10 +4831,10 @@
         <v>1639022005399</v>
       </c>
       <c r="B15" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
       <c r="C15" t="s">
-        <v>939</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -5148,7 +4845,7 @@
         <v>167892</v>
       </c>
       <c r="C16" t="s">
-        <v>940</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +4853,10 @@
         <v>1607111569099</v>
       </c>
       <c r="B17" t="s">
-        <v>896</v>
+        <v>795</v>
       </c>
       <c r="C17" t="s">
-        <v>941</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,10 +4864,10 @@
         <v>1615121707299</v>
       </c>
       <c r="B18" t="s">
-        <v>897</v>
+        <v>796</v>
       </c>
       <c r="C18" t="s">
-        <v>943</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -5181,7 +4878,7 @@
         <v>27976</v>
       </c>
       <c r="C19" t="s">
-        <v>944</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -5203,7 +4900,7 @@
         <v>85512</v>
       </c>
       <c r="C21" t="s">
-        <v>945</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -5214,7 +4911,7 @@
         <v>969980</v>
       </c>
       <c r="C22" t="s">
-        <v>946</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,10 +4919,10 @@
         <v>1672072307199</v>
       </c>
       <c r="B23" t="s">
-        <v>898</v>
+        <v>797</v>
       </c>
       <c r="C23" t="s">
-        <v>947</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,10 +4930,10 @@
         <v>1620121453699</v>
       </c>
       <c r="B24" t="s">
-        <v>899</v>
+        <v>798</v>
       </c>
       <c r="C24" t="s">
-        <v>948</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,10 +4941,10 @@
         <v>1679012870899</v>
       </c>
       <c r="B25" t="s">
-        <v>900</v>
+        <v>799</v>
       </c>
       <c r="C25" t="s">
-        <v>950</v>
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,7 +4955,7 @@
         <v>78489</v>
       </c>
       <c r="C26" t="s">
-        <v>952</v>
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5269,7 +4966,7 @@
         <v>64249</v>
       </c>
       <c r="C27" t="s">
-        <v>953</v>
+        <v>852</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5280,7 +4977,7 @@
         <v>45638</v>
       </c>
       <c r="C28" t="s">
-        <v>954</v>
+        <v>853</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5291,7 +4988,7 @@
         <v>37432</v>
       </c>
       <c r="C29" t="s">
-        <v>955</v>
+        <v>854</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5302,7 +4999,7 @@
         <v>116913</v>
       </c>
       <c r="C30" t="s">
-        <v>956</v>
+        <v>855</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5313,7 +5010,7 @@
         <v>3797</v>
       </c>
       <c r="C31" t="s">
-        <v>957</v>
+        <v>856</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5018,10 @@
         <v>1625082940999</v>
       </c>
       <c r="B32" t="s">
-        <v>901</v>
+        <v>800</v>
       </c>
       <c r="C32" t="s">
-        <v>958</v>
+        <v>857</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5335,7 +5032,7 @@
         <v>544447</v>
       </c>
       <c r="C33" t="s">
-        <v>959</v>
+        <v>858</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5343,10 +5040,10 @@
         <v>1631112020699</v>
       </c>
       <c r="B34" t="s">
-        <v>902</v>
+        <v>801</v>
       </c>
       <c r="C34" t="s">
-        <v>960</v>
+        <v>859</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5354,10 +5051,10 @@
         <v>1699041955899</v>
       </c>
       <c r="B35" t="s">
-        <v>903</v>
+        <v>802</v>
       </c>
       <c r="C35" t="s">
-        <v>961</v>
+        <v>860</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5368,7 +5065,7 @@
         <v>751870</v>
       </c>
       <c r="C36" t="s">
-        <v>962</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5379,7 +5076,7 @@
         <v>251183</v>
       </c>
       <c r="C37" t="s">
-        <v>963</v>
+        <v>862</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5390,7 +5087,7 @@
         <v>26520</v>
       </c>
       <c r="C38" t="s">
-        <v>964</v>
+        <v>863</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5401,7 +5098,7 @@
         <v>64983</v>
       </c>
       <c r="C39" t="s">
-        <v>966</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5412,7 +5109,7 @@
         <v>6387</v>
       </c>
       <c r="C40" t="s">
-        <v>967</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5423,7 +5120,7 @@
         <v>380045</v>
       </c>
       <c r="C41" t="s">
-        <v>969</v>
+        <v>868</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5434,7 +5131,7 @@
         <v>37586</v>
       </c>
       <c r="C42" t="s">
-        <v>970</v>
+        <v>869</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5445,7 +5142,7 @@
         <v>74938</v>
       </c>
       <c r="C43" t="s">
-        <v>971</v>
+        <v>870</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5456,7 +5153,7 @@
         <v>17288</v>
       </c>
       <c r="C44" t="s">
-        <v>973</v>
+        <v>872</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,7 +5161,7 @@
         <v>1612012603699</v>
       </c>
       <c r="B45" t="s">
-        <v>904</v>
+        <v>803</v>
       </c>
       <c r="C45" t="s">
         <v>413</v>
@@ -5486,10 +5183,10 @@
         <v>1616121565999</v>
       </c>
       <c r="B47" t="s">
-        <v>905</v>
+        <v>804</v>
       </c>
       <c r="C47" t="s">
-        <v>975</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -5500,7 +5197,7 @@
         <v>963</v>
       </c>
       <c r="C48" t="s">
-        <v>976</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -5522,7 +5219,7 @@
         <v>53614</v>
       </c>
       <c r="C50" t="s">
-        <v>978</v>
+        <v>877</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -5533,7 +5230,7 @@
         <v>810732</v>
       </c>
       <c r="C51" t="s">
-        <v>979</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -5544,7 +5241,7 @@
         <v>19178</v>
       </c>
       <c r="C52" t="s">
-        <v>980</v>
+        <v>879</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5555,7 +5252,7 @@
         <v>60485</v>
       </c>
       <c r="C53" t="s">
-        <v>981</v>
+        <v>880</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5260,10 @@
         <v>1671091371299</v>
       </c>
       <c r="B54" t="s">
-        <v>906</v>
+        <v>805</v>
       </c>
       <c r="C54" t="s">
-        <v>983</v>
+        <v>882</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -5577,7 +5274,7 @@
         <v>8920</v>
       </c>
       <c r="C55" t="s">
-        <v>985</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -5588,7 +5285,7 @@
         <v>10707</v>
       </c>
       <c r="C56" t="s">
-        <v>987</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -5599,7 +5296,7 @@
         <v>5675</v>
       </c>
       <c r="C57" t="s">
-        <v>988</v>
+        <v>887</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -5607,10 +5304,10 @@
         <v>1686032821699</v>
       </c>
       <c r="B58" t="s">
-        <v>907</v>
+        <v>806</v>
       </c>
       <c r="C58" t="s">
-        <v>989</v>
+        <v>888</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -5621,7 +5318,7 @@
         <v>442740</v>
       </c>
       <c r="C59" t="s">
-        <v>991</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -5632,7 +5329,7 @@
         <v>9813</v>
       </c>
       <c r="C60" t="s">
-        <v>992</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -5640,10 +5337,10 @@
         <v>1617051077399</v>
       </c>
       <c r="B61" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
       <c r="C61" t="s">
-        <v>993</v>
+        <v>892</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5651,10 +5348,10 @@
         <v>1672071314899</v>
       </c>
       <c r="B62" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
       <c r="C62" t="s">
-        <v>994</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -5662,10 +5359,10 @@
         <v>1682050712799</v>
       </c>
       <c r="B63" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
       <c r="C63" t="s">
-        <v>995</v>
+        <v>894</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,10 +5370,10 @@
         <v>1648121933999</v>
       </c>
       <c r="B64" t="s">
-        <v>911</v>
+        <v>810</v>
       </c>
       <c r="C64" t="s">
-        <v>996</v>
+        <v>895</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -5687,7 +5384,7 @@
         <v>70439</v>
       </c>
       <c r="C65" t="s">
-        <v>997</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -5698,7 +5395,7 @@
         <v>4966</v>
       </c>
       <c r="C66" t="s">
-        <v>998</v>
+        <v>897</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -5709,7 +5406,7 @@
         <v>77264</v>
       </c>
       <c r="C67" t="s">
-        <v>1000</v>
+        <v>899</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -5717,10 +5414,10 @@
         <v>1687051926499</v>
       </c>
       <c r="B68" t="s">
-        <v>912</v>
+        <v>811</v>
       </c>
       <c r="C68" t="s">
-        <v>1001</v>
+        <v>900</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,10 +5425,10 @@
         <v>1604031957899</v>
       </c>
       <c r="B69" t="s">
-        <v>913</v>
+        <v>812</v>
       </c>
       <c r="C69" t="s">
-        <v>1002</v>
+        <v>901</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -5739,10 +5436,10 @@
         <v>1658021937199</v>
       </c>
       <c r="B70" t="s">
-        <v>914</v>
+        <v>813</v>
       </c>
       <c r="C70" t="s">
-        <v>1003</v>
+        <v>902</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -5750,10 +5447,10 @@
         <v>1691062764899</v>
       </c>
       <c r="B71" t="s">
-        <v>915</v>
+        <v>814</v>
       </c>
       <c r="C71" t="s">
-        <v>1005</v>
+        <v>904</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5764,7 +5461,7 @@
         <v>28946</v>
       </c>
       <c r="C72" t="s">
-        <v>1006</v>
+        <v>905</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -5775,7 +5472,7 @@
         <v>40117</v>
       </c>
       <c r="C73" t="s">
-        <v>1007</v>
+        <v>906</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -5786,7 +5483,7 @@
         <v>700005</v>
       </c>
       <c r="C74" t="s">
-        <v>1009</v>
+        <v>908</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -5797,7 +5494,7 @@
         <v>8322</v>
       </c>
       <c r="C75" t="s">
-        <v>1010</v>
+        <v>909</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5808,7 +5505,7 @@
         <v>58923</v>
       </c>
       <c r="C76" t="s">
-        <v>1011</v>
+        <v>910</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,7 +5516,7 @@
         <v>75203</v>
       </c>
       <c r="C77" t="s">
-        <v>1012</v>
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5830,7 +5527,7 @@
         <v>521629</v>
       </c>
       <c r="C78" t="s">
-        <v>1013</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -5841,7 +5538,7 @@
         <v>4820</v>
       </c>
       <c r="C79" t="s">
-        <v>1014</v>
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5849,10 +5546,10 @@
         <v>1677050564599</v>
       </c>
       <c r="B80" t="s">
-        <v>916</v>
+        <v>815</v>
       </c>
       <c r="C80" t="s">
-        <v>1015</v>
+        <v>914</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5863,7 +5560,7 @@
         <v>5600</v>
       </c>
       <c r="C81" t="s">
-        <v>1016</v>
+        <v>915</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5874,7 +5571,7 @@
         <v>647401</v>
       </c>
       <c r="C82" t="s">
-        <v>1018</v>
+        <v>917</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -5885,7 +5582,7 @@
         <v>676506</v>
       </c>
       <c r="C83" t="s">
-        <v>1020</v>
+        <v>919</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5893,10 +5590,10 @@
         <v>1665070433599</v>
       </c>
       <c r="B84" t="s">
-        <v>917</v>
+        <v>816</v>
       </c>
       <c r="C84" t="s">
-        <v>1022</v>
+        <v>921</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,10 +5601,10 @@
         <v>1660081079799</v>
       </c>
       <c r="B85" t="s">
-        <v>918</v>
+        <v>817</v>
       </c>
       <c r="C85" t="s">
-        <v>1023</v>
+        <v>922</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -5918,7 +5615,7 @@
         <v>581888</v>
       </c>
       <c r="C86" t="s">
-        <v>1024</v>
+        <v>923</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5929,7 +5626,7 @@
         <v>76631</v>
       </c>
       <c r="C87" t="s">
-        <v>1025</v>
+        <v>924</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5937,10 +5634,10 @@
         <v>1660121706999</v>
       </c>
       <c r="B88" t="s">
-        <v>919</v>
+        <v>818</v>
       </c>
       <c r="C88" t="s">
-        <v>1026</v>
+        <v>925</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5951,7 +5648,7 @@
         <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>1027</v>
+        <v>926</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5962,7 +5659,7 @@
         <v>84908</v>
       </c>
       <c r="C90" t="s">
-        <v>1028</v>
+        <v>927</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5973,7 +5670,7 @@
         <v>870177</v>
       </c>
       <c r="C91" t="s">
-        <v>1030</v>
+        <v>929</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5984,7 +5681,7 @@
         <v>96723</v>
       </c>
       <c r="C92" t="s">
-        <v>1031</v>
+        <v>930</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5992,10 +5689,10 @@
         <v>1674020754899</v>
       </c>
       <c r="B93" t="s">
-        <v>920</v>
+        <v>819</v>
       </c>
       <c r="C93" t="s">
-        <v>1033</v>
+        <v>932</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -6006,7 +5703,7 @@
         <v>67088</v>
       </c>
       <c r="C94" t="s">
-        <v>1034</v>
+        <v>933</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -6014,10 +5711,10 @@
         <v>1683052824899</v>
       </c>
       <c r="B95" t="s">
-        <v>921</v>
+        <v>820</v>
       </c>
       <c r="C95" t="s">
-        <v>1035</v>
+        <v>934</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -6028,7 +5725,7 @@
         <v>84293</v>
       </c>
       <c r="C96" t="s">
-        <v>1036</v>
+        <v>935</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -6039,7 +5736,7 @@
         <v>7114</v>
       </c>
       <c r="C97" t="s">
-        <v>1038</v>
+        <v>937</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -6050,7 +5747,7 @@
         <v>87923</v>
       </c>
       <c r="C98" t="s">
-        <v>1040</v>
+        <v>939</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -6061,7 +5758,7 @@
         <v>4843</v>
       </c>
       <c r="C99" t="s">
-        <v>1041</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -6072,7 +5769,7 @@
         <v>63132</v>
       </c>
       <c r="C100" t="s">
-        <v>1043</v>
+        <v>942</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -6083,7 +5780,7 @@
         <v>76266</v>
       </c>
       <c r="C101" t="s">
-        <v>1045</v>
+        <v>944</v>
       </c>
     </row>
   </sheetData>
@@ -7218,829 +6915,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C16BDA-44EA-EE44-8B9F-05DD22FE0EB2}">
-  <dimension ref="A1:B101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>498</v>
-      </c>
-      <c r="B3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>500</v>
-      </c>
-      <c r="B4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B10" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B12" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B13" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B14" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>522</v>
-      </c>
-      <c r="B15" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>524</v>
-      </c>
-      <c r="B16" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>526</v>
-      </c>
-      <c r="B17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>528</v>
-      </c>
-      <c r="B18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>530</v>
-      </c>
-      <c r="B19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>532</v>
-      </c>
-      <c r="B20" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>534</v>
-      </c>
-      <c r="B21" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>536</v>
-      </c>
-      <c r="B22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>538</v>
-      </c>
-      <c r="B23" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>540</v>
-      </c>
-      <c r="B24" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>542</v>
-      </c>
-      <c r="B25" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>544</v>
-      </c>
-      <c r="B26" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>546</v>
-      </c>
-      <c r="B27" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>548</v>
-      </c>
-      <c r="B28" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>550</v>
-      </c>
-      <c r="B29" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>552</v>
-      </c>
-      <c r="B30" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>554</v>
-      </c>
-      <c r="B31" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>556</v>
-      </c>
-      <c r="B32" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>558</v>
-      </c>
-      <c r="B33" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>560</v>
-      </c>
-      <c r="B34" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>562</v>
-      </c>
-      <c r="B35" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>564</v>
-      </c>
-      <c r="B36" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>566</v>
-      </c>
-      <c r="B37" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>568</v>
-      </c>
-      <c r="B38" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>570</v>
-      </c>
-      <c r="B39" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>572</v>
-      </c>
-      <c r="B40" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>574</v>
-      </c>
-      <c r="B41" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>576</v>
-      </c>
-      <c r="B42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>580</v>
-      </c>
-      <c r="B44" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>582</v>
-      </c>
-      <c r="B45" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>584</v>
-      </c>
-      <c r="B46" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>586</v>
-      </c>
-      <c r="B47" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B48" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>590</v>
-      </c>
-      <c r="B49" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>592</v>
-      </c>
-      <c r="B50" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>594</v>
-      </c>
-      <c r="B51" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>596</v>
-      </c>
-      <c r="B52" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>598</v>
-      </c>
-      <c r="B53" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>600</v>
-      </c>
-      <c r="B54" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>602</v>
-      </c>
-      <c r="B55" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>604</v>
-      </c>
-      <c r="B56" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>606</v>
-      </c>
-      <c r="B57" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>608</v>
-      </c>
-      <c r="B58" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>610</v>
-      </c>
-      <c r="B59" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>612</v>
-      </c>
-      <c r="B60" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>614</v>
-      </c>
-      <c r="B61" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>616</v>
-      </c>
-      <c r="B62" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>618</v>
-      </c>
-      <c r="B63" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>620</v>
-      </c>
-      <c r="B64" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>622</v>
-      </c>
-      <c r="B65" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>624</v>
-      </c>
-      <c r="B66" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>626</v>
-      </c>
-      <c r="B67" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>628</v>
-      </c>
-      <c r="B68" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>630</v>
-      </c>
-      <c r="B69" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>632</v>
-      </c>
-      <c r="B70" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>634</v>
-      </c>
-      <c r="B71" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>636</v>
-      </c>
-      <c r="B72" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>638</v>
-      </c>
-      <c r="B73" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>640</v>
-      </c>
-      <c r="B74" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>642</v>
-      </c>
-      <c r="B75" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>644</v>
-      </c>
-      <c r="B76" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>646</v>
-      </c>
-      <c r="B77" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>648</v>
-      </c>
-      <c r="B78" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>650</v>
-      </c>
-      <c r="B79" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>652</v>
-      </c>
-      <c r="B80" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>654</v>
-      </c>
-      <c r="B81" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>656</v>
-      </c>
-      <c r="B82" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>658</v>
-      </c>
-      <c r="B83" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>660</v>
-      </c>
-      <c r="B84" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>662</v>
-      </c>
-      <c r="B85" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>664</v>
-      </c>
-      <c r="B86" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>666</v>
-      </c>
-      <c r="B87" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>668</v>
-      </c>
-      <c r="B88" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>670</v>
-      </c>
-      <c r="B89" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>672</v>
-      </c>
-      <c r="B90" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>674</v>
-      </c>
-      <c r="B91" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>676</v>
-      </c>
-      <c r="B92" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>678</v>
-      </c>
-      <c r="B93" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>680</v>
-      </c>
-      <c r="B94" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>682</v>
-      </c>
-      <c r="B95" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>684</v>
-      </c>
-      <c r="B96" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>686</v>
-      </c>
-      <c r="B97" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>688</v>
-      </c>
-      <c r="B98" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>690</v>
-      </c>
-      <c r="B99" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>692</v>
-      </c>
-      <c r="B100" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>694</v>
-      </c>
-      <c r="B101" t="s">
-        <v>695</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7B5990-A7F5-BC4F-86C0-3CCD89DC31AC}">
   <dimension ref="A1:B101"/>
   <sheetViews>
@@ -8052,810 +6926,1633 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="B1" t="s">
-        <v>697</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>699</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>702</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>706</v>
+        <v>605</v>
       </c>
       <c r="B6" t="s">
-        <v>707</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>607</v>
       </c>
       <c r="B7" t="s">
-        <v>709</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>710</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s">
-        <v>711</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>712</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s">
-        <v>713</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>714</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s">
-        <v>715</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s">
-        <v>717</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>718</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s">
-        <v>719</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>720</v>
+        <v>619</v>
       </c>
       <c r="B13" t="s">
-        <v>721</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>722</v>
+        <v>621</v>
       </c>
       <c r="B14" t="s">
-        <v>723</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>724</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>725</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>726</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
-        <v>727</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>627</v>
       </c>
       <c r="B17" t="s">
-        <v>729</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>629</v>
       </c>
       <c r="B18" t="s">
-        <v>731</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>732</v>
+        <v>631</v>
       </c>
       <c r="B19" t="s">
-        <v>733</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
-        <v>735</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>736</v>
+        <v>635</v>
       </c>
       <c r="B21" t="s">
-        <v>737</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>738</v>
+        <v>637</v>
       </c>
       <c r="B22" t="s">
-        <v>739</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>740</v>
+        <v>639</v>
       </c>
       <c r="B23" t="s">
-        <v>741</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>742</v>
+        <v>641</v>
       </c>
       <c r="B24" t="s">
-        <v>743</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="B25" t="s">
-        <v>745</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>746</v>
+        <v>645</v>
       </c>
       <c r="B26" t="s">
-        <v>747</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>748</v>
+        <v>647</v>
       </c>
       <c r="B27" t="s">
-        <v>749</v>
+        <v>648</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="B28" t="s">
-        <v>751</v>
+        <v>650</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>752</v>
+        <v>651</v>
       </c>
       <c r="B29" t="s">
-        <v>753</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>754</v>
+        <v>653</v>
       </c>
       <c r="B30" t="s">
-        <v>755</v>
+        <v>654</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>756</v>
+        <v>655</v>
       </c>
       <c r="B31" t="s">
-        <v>757</v>
+        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>758</v>
+        <v>657</v>
       </c>
       <c r="B32" t="s">
-        <v>759</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>760</v>
+        <v>659</v>
       </c>
       <c r="B33" t="s">
-        <v>761</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>762</v>
+        <v>661</v>
       </c>
       <c r="B34" t="s">
-        <v>763</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>728</v>
+        <v>627</v>
       </c>
       <c r="B35" t="s">
-        <v>764</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>765</v>
+        <v>664</v>
       </c>
       <c r="B36" t="s">
-        <v>766</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="B37" t="s">
-        <v>768</v>
+        <v>667</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>769</v>
+        <v>668</v>
       </c>
       <c r="B38" t="s">
-        <v>770</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>771</v>
+        <v>670</v>
       </c>
       <c r="B39" t="s">
-        <v>772</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>773</v>
+        <v>672</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>775</v>
+        <v>674</v>
       </c>
       <c r="B41" t="s">
-        <v>776</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>777</v>
+        <v>676</v>
       </c>
       <c r="B42" t="s">
-        <v>778</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="B43" t="s">
-        <v>780</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>781</v>
+        <v>680</v>
       </c>
       <c r="B44" t="s">
-        <v>782</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>765</v>
+        <v>664</v>
       </c>
       <c r="B45" t="s">
-        <v>783</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>784</v>
+        <v>683</v>
       </c>
       <c r="B46" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>786</v>
+        <v>685</v>
       </c>
       <c r="B47" t="s">
-        <v>787</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>788</v>
+        <v>687</v>
       </c>
       <c r="B48" t="s">
-        <v>789</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="B49" t="s">
-        <v>791</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>792</v>
+        <v>691</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>794</v>
+        <v>693</v>
       </c>
       <c r="B51" t="s">
-        <v>795</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>796</v>
+        <v>695</v>
       </c>
       <c r="B52" t="s">
-        <v>797</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>798</v>
+        <v>697</v>
       </c>
       <c r="B53" t="s">
-        <v>799</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>800</v>
+        <v>699</v>
       </c>
       <c r="B54" t="s">
-        <v>801</v>
+        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>802</v>
+        <v>701</v>
       </c>
       <c r="B55" t="s">
-        <v>803</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>804</v>
+        <v>703</v>
       </c>
       <c r="B56" t="s">
-        <v>805</v>
+        <v>704</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>806</v>
+        <v>705</v>
       </c>
       <c r="B57" t="s">
-        <v>807</v>
+        <v>706</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>808</v>
+        <v>707</v>
       </c>
       <c r="B58" t="s">
-        <v>809</v>
+        <v>708</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>810</v>
+        <v>709</v>
       </c>
       <c r="B59" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>812</v>
+        <v>711</v>
       </c>
       <c r="B60" t="s">
-        <v>813</v>
+        <v>712</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>814</v>
+        <v>713</v>
       </c>
       <c r="B61" t="s">
-        <v>815</v>
+        <v>714</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>816</v>
+        <v>715</v>
       </c>
       <c r="B62" t="s">
-        <v>817</v>
+        <v>716</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>818</v>
+        <v>717</v>
       </c>
       <c r="B63" t="s">
-        <v>819</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>820</v>
+        <v>719</v>
       </c>
       <c r="B64" t="s">
-        <v>821</v>
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>822</v>
+        <v>721</v>
       </c>
       <c r="B65" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>824</v>
+        <v>723</v>
       </c>
       <c r="B66" t="s">
-        <v>825</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>736</v>
+        <v>635</v>
       </c>
       <c r="B67" t="s">
-        <v>826</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>827</v>
+        <v>726</v>
       </c>
       <c r="B68" t="s">
-        <v>828</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>829</v>
+        <v>728</v>
       </c>
       <c r="B69" t="s">
-        <v>830</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>831</v>
+        <v>730</v>
       </c>
       <c r="B70" t="s">
-        <v>832</v>
+        <v>731</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>833</v>
+        <v>732</v>
       </c>
       <c r="B71" t="s">
-        <v>834</v>
+        <v>733</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>835</v>
+        <v>734</v>
       </c>
       <c r="B72" t="s">
-        <v>836</v>
+        <v>735</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>746</v>
+        <v>645</v>
       </c>
       <c r="B73" t="s">
-        <v>837</v>
+        <v>736</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>838</v>
+        <v>737</v>
       </c>
       <c r="B74" t="s">
-        <v>839</v>
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>840</v>
+        <v>739</v>
       </c>
       <c r="B75" t="s">
-        <v>841</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>769</v>
+        <v>668</v>
       </c>
       <c r="B76" t="s">
-        <v>842</v>
+        <v>741</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>843</v>
+        <v>742</v>
       </c>
       <c r="B77" t="s">
-        <v>844</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>845</v>
+        <v>744</v>
       </c>
       <c r="B78" t="s">
-        <v>846</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>847</v>
+        <v>746</v>
       </c>
       <c r="B79" t="s">
-        <v>848</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="B80" t="s">
-        <v>849</v>
+        <v>748</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="B81" t="s">
-        <v>851</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>852</v>
+        <v>751</v>
       </c>
       <c r="B82" t="s">
-        <v>853</v>
+        <v>752</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>854</v>
+        <v>753</v>
       </c>
       <c r="B83" t="s">
-        <v>855</v>
+        <v>754</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>856</v>
+        <v>755</v>
       </c>
       <c r="B84" t="s">
-        <v>857</v>
+        <v>756</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>858</v>
+        <v>757</v>
       </c>
       <c r="B85" t="s">
-        <v>859</v>
+        <v>758</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>822</v>
+        <v>721</v>
       </c>
       <c r="B86" t="s">
-        <v>860</v>
+        <v>759</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>861</v>
+        <v>760</v>
       </c>
       <c r="B87" t="s">
-        <v>862</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>863</v>
+        <v>762</v>
       </c>
       <c r="B88" t="s">
-        <v>864</v>
+        <v>763</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>865</v>
+        <v>764</v>
       </c>
       <c r="B89" t="s">
-        <v>866</v>
+        <v>765</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>867</v>
+        <v>766</v>
       </c>
       <c r="B90" t="s">
-        <v>868</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>869</v>
+        <v>768</v>
       </c>
       <c r="B91" t="s">
-        <v>870</v>
+        <v>769</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>871</v>
+        <v>770</v>
       </c>
       <c r="B92" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>873</v>
+        <v>772</v>
       </c>
       <c r="B93" t="s">
-        <v>874</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>875</v>
+        <v>774</v>
       </c>
       <c r="B94" t="s">
-        <v>876</v>
+        <v>775</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="B95" t="s">
-        <v>878</v>
+        <v>777</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>879</v>
+        <v>778</v>
       </c>
       <c r="B96" t="s">
-        <v>880</v>
+        <v>779</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>881</v>
+        <v>780</v>
       </c>
       <c r="B97" t="s">
-        <v>882</v>
+        <v>781</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>883</v>
+        <v>782</v>
       </c>
       <c r="B98" t="s">
-        <v>884</v>
+        <v>783</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>885</v>
+        <v>784</v>
       </c>
       <c r="B99" t="s">
-        <v>886</v>
+        <v>785</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>887</v>
+        <v>786</v>
       </c>
       <c r="B100" t="s">
-        <v>888</v>
+        <v>787</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
       <c r="B101" t="s">
-        <v>890</v>
+        <v>789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064B197F-E619-8648-A446-D947C412F9C1}">
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.1308138287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.25003813670000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>-0.26750152859999998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.2083399497</v>
+      </c>
+      <c r="B5" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.14228027779999999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.13287849290000001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>-5.3739019300000003E-2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-6.2435007700000003E-2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>-2.2413936999999998E-2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>-0.28279715300000002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.26716291660000002</v>
+      </c>
+      <c r="B12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.56584206469999998</v>
+      </c>
+      <c r="B13" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-0.25953054920000002</v>
+      </c>
+      <c r="B14" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.1145327067</v>
+      </c>
+      <c r="B15" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-0.3562782028</v>
+      </c>
+      <c r="B16" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.14936374599999999</v>
+      </c>
+      <c r="B17" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-0.31616635329999998</v>
+      </c>
+      <c r="B18" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-2.4253973099999999E-2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6.84189199E-2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.34097584819999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-0.59237737229999998</v>
+      </c>
+      <c r="B22" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-0.21231696319999999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-5.9439925999999997E-3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7.4050135000000003E-2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.27524451820000001</v>
+      </c>
+      <c r="B26" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.16667619980000001</v>
+      </c>
+      <c r="B27" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1.8210805600000001E-2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.37341182960000002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-0.45419687590000002</v>
+      </c>
+      <c r="B30" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-0.3804962221</v>
+      </c>
+      <c r="B31" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>8.0684541799999995E-2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.16538038660000001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.31698695380000003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>7.0800330999999999E-3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.30435148709999998</v>
+      </c>
+      <c r="B36" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.50989469279999999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>-0.28824843309999998</v>
+      </c>
+      <c r="B38" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>-0.13001348569999999</v>
+      </c>
+      <c r="B39" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.31042991289999999</v>
+      </c>
+      <c r="B40" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>-0.1753822797</v>
+      </c>
+      <c r="B41" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6.8159924400000002E-2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>-3.1238982700000001E-2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9.0802016999999999E-2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.32585577129999999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>-0.34068232050000002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.1082807761</v>
+      </c>
+      <c r="B47" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>-5.0385754999999997E-3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.16107464390000001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.1409404115</v>
+      </c>
+      <c r="B50" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.1495166705</v>
+      </c>
+      <c r="B51" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>-6.2198718100000001E-2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.55908148400000002</v>
+      </c>
+      <c r="B53" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>-0.109851397</v>
+      </c>
+      <c r="B54" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.1249783329</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.56362145429999999</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5.8666298800000002E-2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5.3225546000000004E-3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>-0.13214176010000001</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>0.49309277940000001</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>-1.8641768E-3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>0.142959012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>-0.25410092690000002</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>-0.91819396769999995</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>-3.97979335E-2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>-0.48370511449999998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>-2.4961175000000001E-3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>0.14667578419999999</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0.30436151280000001</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>-0.36177248020000002</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>-0.21619538839999999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>0.28144273990000002</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>-0.59840828889999997</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>-7.7231069599999994E-2</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1.82150508E-2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4.4640539600000001E-2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>-4.0916781499999999E-2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>-5.8307224800000002E-2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0.25235283159999999</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0.1890900942</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>-9.8800914899999995E-2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0.10066938810000001</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>-0.1162931209</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>0.23515202139999999</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0.144238002</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>-0.14263254989999999</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>-0.35540925719999999</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>0.34016484889999998</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>-0.29762919510000002</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8.9732820000000008E-3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>-9.6588513099999995E-2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>-0.21821313240000001</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>-0.52524423620000005</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>0.24338385609999999</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>-0.30015907510000001</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>0.1614652805</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>0.17576518150000001</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>0.25168125400000002</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>-0.2425762971</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>-0.44849015959999999</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-0.1415879068</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -8875,10 +8572,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
       <c r="B1" t="s">
-        <v>892</v>
+        <v>791</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8950,7 +8647,7 @@
         <v>1605082157299</v>
       </c>
       <c r="B10" t="s">
-        <v>893</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -8982,7 +8679,7 @@
         <v>1689011611099</v>
       </c>
       <c r="B14" t="s">
-        <v>894</v>
+        <v>793</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -8990,7 +8687,7 @@
         <v>1639022005399</v>
       </c>
       <c r="B15" t="s">
-        <v>895</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -9006,7 +8703,7 @@
         <v>1607111569099</v>
       </c>
       <c r="B17" t="s">
-        <v>896</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -9014,7 +8711,7 @@
         <v>1615121707299</v>
       </c>
       <c r="B18" t="s">
-        <v>897</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -9054,7 +8751,7 @@
         <v>1672072307199</v>
       </c>
       <c r="B23" t="s">
-        <v>898</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -9062,7 +8759,7 @@
         <v>1620121453699</v>
       </c>
       <c r="B24" t="s">
-        <v>899</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -9070,7 +8767,7 @@
         <v>1679012870899</v>
       </c>
       <c r="B25" t="s">
-        <v>900</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -9126,7 +8823,7 @@
         <v>1625082940999</v>
       </c>
       <c r="B32" t="s">
-        <v>901</v>
+        <v>800</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -9142,7 +8839,7 @@
         <v>1631112020699</v>
       </c>
       <c r="B34" t="s">
-        <v>902</v>
+        <v>801</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -9150,7 +8847,7 @@
         <v>1699041955899</v>
       </c>
       <c r="B35" t="s">
-        <v>903</v>
+        <v>802</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -9230,7 +8927,7 @@
         <v>1612012603699</v>
       </c>
       <c r="B45" t="s">
-        <v>904</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -9246,7 +8943,7 @@
         <v>1616121565999</v>
       </c>
       <c r="B47" t="s">
-        <v>905</v>
+        <v>804</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -9302,7 +8999,7 @@
         <v>1671091371299</v>
       </c>
       <c r="B54" t="s">
-        <v>906</v>
+        <v>805</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -9334,7 +9031,7 @@
         <v>1686032821699</v>
       </c>
       <c r="B58" t="s">
-        <v>907</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -9358,7 +9055,7 @@
         <v>1617051077399</v>
       </c>
       <c r="B61" t="s">
-        <v>908</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -9366,7 +9063,7 @@
         <v>1672071314899</v>
       </c>
       <c r="B62" t="s">
-        <v>909</v>
+        <v>808</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -9374,7 +9071,7 @@
         <v>1682050712799</v>
       </c>
       <c r="B63" t="s">
-        <v>910</v>
+        <v>809</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -9382,7 +9079,7 @@
         <v>1648121933999</v>
       </c>
       <c r="B64" t="s">
-        <v>911</v>
+        <v>810</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -9414,7 +9111,7 @@
         <v>1687051926499</v>
       </c>
       <c r="B68" t="s">
-        <v>912</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -9422,7 +9119,7 @@
         <v>1604031957899</v>
       </c>
       <c r="B69" t="s">
-        <v>913</v>
+        <v>812</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -9430,7 +9127,7 @@
         <v>1658021937199</v>
       </c>
       <c r="B70" t="s">
-        <v>914</v>
+        <v>813</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -9438,7 +9135,7 @@
         <v>1691062764899</v>
       </c>
       <c r="B71" t="s">
-        <v>915</v>
+        <v>814</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -9510,7 +9207,7 @@
         <v>1677050564599</v>
       </c>
       <c r="B80" t="s">
-        <v>916</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -9542,7 +9239,7 @@
         <v>1665070433599</v>
       </c>
       <c r="B84" t="s">
-        <v>917</v>
+        <v>816</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -9550,7 +9247,7 @@
         <v>1660081079799</v>
       </c>
       <c r="B85" t="s">
-        <v>918</v>
+        <v>817</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -9574,7 +9271,7 @@
         <v>1660121706999</v>
       </c>
       <c r="B88" t="s">
-        <v>919</v>
+        <v>818</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -9614,7 +9311,7 @@
         <v>1674020754899</v>
       </c>
       <c r="B93" t="s">
-        <v>920</v>
+        <v>819</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -9630,7 +9327,7 @@
         <v>1683052824899</v>
       </c>
       <c r="B95" t="s">
-        <v>921</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -9698,15 +9395,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>922</v>
+        <v>821</v>
       </c>
       <c r="B1" t="s">
-        <v>923</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>924</v>
+        <v>823</v>
       </c>
       <c r="B2">
         <v>958987</v>
@@ -9714,7 +9411,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>925</v>
+        <v>824</v>
       </c>
       <c r="B3">
         <v>38907</v>
@@ -9722,7 +9419,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>926</v>
+        <v>825</v>
       </c>
       <c r="B4">
         <v>260485</v>
@@ -9730,7 +9427,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>927</v>
+        <v>826</v>
       </c>
       <c r="B5">
         <v>6316</v>
@@ -9738,7 +9435,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>928</v>
+        <v>827</v>
       </c>
       <c r="B6">
         <v>1833</v>
@@ -9746,15 +9443,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>929</v>
+        <v>828</v>
       </c>
       <c r="B7" t="s">
-        <v>930</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>931</v>
+        <v>830</v>
       </c>
       <c r="B8">
         <v>7388</v>
@@ -9762,7 +9459,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>932</v>
+        <v>831</v>
       </c>
       <c r="B9">
         <v>94783</v>
@@ -9770,15 +9467,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>933</v>
+        <v>832</v>
       </c>
       <c r="B10" t="s">
-        <v>934</v>
+        <v>833</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>935</v>
+        <v>834</v>
       </c>
       <c r="B11">
         <v>6857</v>
@@ -9794,7 +9491,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>936</v>
+        <v>835</v>
       </c>
       <c r="B13">
         <v>41464</v>
@@ -9802,15 +9499,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>937</v>
+        <v>836</v>
       </c>
       <c r="B14" t="s">
-        <v>938</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>939</v>
+        <v>838</v>
       </c>
       <c r="B15">
         <v>25750</v>
@@ -9818,7 +9515,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>940</v>
+        <v>839</v>
       </c>
       <c r="B16">
         <v>4722</v>
@@ -9826,15 +9523,15 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>941</v>
+        <v>840</v>
       </c>
       <c r="B17" t="s">
-        <v>942</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>943</v>
+        <v>842</v>
       </c>
       <c r="B18">
         <v>35137</v>
@@ -9842,7 +9539,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>944</v>
+        <v>843</v>
       </c>
       <c r="B19">
         <v>3757</v>
@@ -9858,7 +9555,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>945</v>
+        <v>844</v>
       </c>
       <c r="B21">
         <v>1856</v>
@@ -9866,7 +9563,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>946</v>
+        <v>845</v>
       </c>
       <c r="B22">
         <v>32538</v>
@@ -9874,7 +9571,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>947</v>
+        <v>846</v>
       </c>
       <c r="B23">
         <v>20006</v>
@@ -9882,23 +9579,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>948</v>
+        <v>847</v>
       </c>
       <c r="B24" t="s">
-        <v>949</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>950</v>
+        <v>849</v>
       </c>
       <c r="B25" t="s">
-        <v>951</v>
+        <v>850</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>952</v>
+        <v>851</v>
       </c>
       <c r="B26">
         <v>577005</v>
@@ -9906,7 +9603,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>953</v>
+        <v>852</v>
       </c>
       <c r="B27">
         <v>10142</v>
@@ -9914,7 +9611,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>954</v>
+        <v>853</v>
       </c>
       <c r="B28">
         <v>8431</v>
@@ -9922,7 +9619,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>955</v>
+        <v>854</v>
       </c>
       <c r="B29">
         <v>24509</v>
@@ -9930,7 +9627,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>956</v>
+        <v>855</v>
       </c>
       <c r="B30">
         <v>19756</v>
@@ -9938,7 +9635,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>957</v>
+        <v>856</v>
       </c>
       <c r="B31">
         <v>63250</v>
@@ -9946,7 +9643,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>958</v>
+        <v>857</v>
       </c>
       <c r="B32">
         <v>89994</v>
@@ -9954,7 +9651,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>959</v>
+        <v>858</v>
       </c>
       <c r="B33">
         <v>3285</v>
@@ -9962,7 +9659,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>960</v>
+        <v>859</v>
       </c>
       <c r="B34">
         <v>49940</v>
@@ -9970,7 +9667,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>961</v>
+        <v>860</v>
       </c>
       <c r="B35">
         <v>93938</v>
@@ -9978,7 +9675,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>962</v>
+        <v>861</v>
       </c>
       <c r="B36">
         <v>666109</v>
@@ -9986,7 +9683,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>963</v>
+        <v>862</v>
       </c>
       <c r="B37">
         <v>2350</v>
@@ -9994,15 +9691,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>964</v>
+        <v>863</v>
       </c>
       <c r="B38" t="s">
-        <v>965</v>
+        <v>864</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>966</v>
+        <v>865</v>
       </c>
       <c r="B39">
         <v>5844</v>
@@ -10010,15 +9707,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>967</v>
+        <v>866</v>
       </c>
       <c r="B40" t="s">
-        <v>968</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>969</v>
+        <v>868</v>
       </c>
       <c r="B41">
         <v>5995</v>
@@ -10026,7 +9723,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>970</v>
+        <v>869</v>
       </c>
       <c r="B42">
         <v>28758</v>
@@ -10034,18 +9731,18 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>971</v>
+        <v>870</v>
       </c>
       <c r="B43" t="s">
-        <v>972</v>
+        <v>871</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>973</v>
+        <v>872</v>
       </c>
       <c r="B44" t="s">
-        <v>974</v>
+        <v>873</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -10066,7 +9763,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>975</v>
+        <v>874</v>
       </c>
       <c r="B47">
         <v>52870</v>
@@ -10074,10 +9771,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="B48" t="s">
-        <v>977</v>
+        <v>876</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -10090,7 +9787,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>978</v>
+        <v>877</v>
       </c>
       <c r="B50">
         <v>77763</v>
@@ -10098,7 +9795,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>979</v>
+        <v>878</v>
       </c>
       <c r="B51">
         <v>3525</v>
@@ -10106,7 +9803,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>980</v>
+        <v>879</v>
       </c>
       <c r="B52">
         <v>26178</v>
@@ -10114,31 +9811,31 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>981</v>
+        <v>880</v>
       </c>
       <c r="B53" t="s">
-        <v>982</v>
+        <v>881</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>983</v>
+        <v>882</v>
       </c>
       <c r="B54" t="s">
-        <v>984</v>
+        <v>883</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>985</v>
+        <v>884</v>
       </c>
       <c r="B55" t="s">
-        <v>986</v>
+        <v>885</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>987</v>
+        <v>886</v>
       </c>
       <c r="B56">
         <v>998634</v>
@@ -10146,7 +9843,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>988</v>
+        <v>887</v>
       </c>
       <c r="B57">
         <v>274631</v>
@@ -10154,15 +9851,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>989</v>
+        <v>888</v>
       </c>
       <c r="B58" t="s">
-        <v>990</v>
+        <v>889</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>991</v>
+        <v>890</v>
       </c>
       <c r="B59">
         <v>67896</v>
@@ -10170,7 +9867,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>992</v>
+        <v>891</v>
       </c>
       <c r="B60">
         <v>5785</v>
@@ -10178,7 +9875,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>993</v>
+        <v>892</v>
       </c>
       <c r="B61">
         <v>11614</v>
@@ -10186,7 +9883,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>994</v>
+        <v>893</v>
       </c>
       <c r="B62">
         <v>25672</v>
@@ -10194,7 +9891,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>995</v>
+        <v>894</v>
       </c>
       <c r="B63">
         <v>636604</v>
@@ -10202,7 +9899,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>996</v>
+        <v>895</v>
       </c>
       <c r="B64">
         <v>20105</v>
@@ -10210,7 +9907,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>997</v>
+        <v>896</v>
       </c>
       <c r="B65">
         <v>454413</v>
@@ -10218,15 +9915,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>998</v>
+        <v>897</v>
       </c>
       <c r="B66" t="s">
-        <v>999</v>
+        <v>898</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1000</v>
+        <v>899</v>
       </c>
       <c r="B67">
         <v>96640</v>
@@ -10234,7 +9931,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1001</v>
+        <v>900</v>
       </c>
       <c r="B68">
         <v>391441</v>
@@ -10242,7 +9939,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1002</v>
+        <v>901</v>
       </c>
       <c r="B69">
         <v>11611</v>
@@ -10250,15 +9947,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1003</v>
+        <v>902</v>
       </c>
       <c r="B70" t="s">
-        <v>1004</v>
+        <v>903</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1005</v>
+        <v>904</v>
       </c>
       <c r="B71">
         <v>83799</v>
@@ -10266,7 +9963,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1006</v>
+        <v>905</v>
       </c>
       <c r="B72">
         <v>9294</v>
@@ -10274,15 +9971,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1007</v>
+        <v>906</v>
       </c>
       <c r="B73" t="s">
-        <v>1008</v>
+        <v>907</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1009</v>
+        <v>908</v>
       </c>
       <c r="B74">
         <v>602884</v>
@@ -10290,7 +9987,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1010</v>
+        <v>909</v>
       </c>
       <c r="B75">
         <v>73698</v>
@@ -10298,7 +9995,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1011</v>
+        <v>910</v>
       </c>
       <c r="B76">
         <v>63759</v>
@@ -10306,7 +10003,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1012</v>
+        <v>911</v>
       </c>
       <c r="B77">
         <v>9725</v>
@@ -10314,7 +10011,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1013</v>
+        <v>912</v>
       </c>
       <c r="B78">
         <v>105</v>
@@ -10322,7 +10019,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1014</v>
+        <v>913</v>
       </c>
       <c r="B79">
         <v>7269</v>
@@ -10330,7 +10027,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1015</v>
+        <v>914</v>
       </c>
       <c r="B80">
         <v>690744</v>
@@ -10338,31 +10035,31 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1016</v>
+        <v>915</v>
       </c>
       <c r="B81" t="s">
-        <v>1017</v>
+        <v>916</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1018</v>
+        <v>917</v>
       </c>
       <c r="B82" t="s">
-        <v>1019</v>
+        <v>918</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1020</v>
+        <v>919</v>
       </c>
       <c r="B83" t="s">
-        <v>1021</v>
+        <v>920</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1022</v>
+        <v>921</v>
       </c>
       <c r="B84">
         <v>53539</v>
@@ -10370,7 +10067,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1023</v>
+        <v>922</v>
       </c>
       <c r="B85">
         <v>4271</v>
@@ -10378,7 +10075,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1024</v>
+        <v>923</v>
       </c>
       <c r="B86">
         <v>7011</v>
@@ -10386,7 +10083,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1025</v>
+        <v>924</v>
       </c>
       <c r="B87">
         <v>437774</v>
@@ -10394,7 +10091,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1026</v>
+        <v>925</v>
       </c>
       <c r="B88">
         <v>449131</v>
@@ -10402,7 +10099,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1027</v>
+        <v>926</v>
       </c>
       <c r="B89">
         <v>3544</v>
@@ -10410,15 +10107,15 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1028</v>
+        <v>927</v>
       </c>
       <c r="B90" t="s">
-        <v>1029</v>
+        <v>928</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1030</v>
+        <v>929</v>
       </c>
       <c r="B91">
         <v>7014</v>
@@ -10426,15 +10123,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1031</v>
+        <v>930</v>
       </c>
       <c r="B92" t="s">
-        <v>1032</v>
+        <v>931</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1033</v>
+        <v>932</v>
       </c>
       <c r="B93">
         <v>7076</v>
@@ -10442,7 +10139,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1034</v>
+        <v>933</v>
       </c>
       <c r="B94">
         <v>559340</v>
@@ -10450,7 +10147,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1035</v>
+        <v>934</v>
       </c>
       <c r="B95">
         <v>53447</v>
@@ -10458,23 +10155,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1036</v>
+        <v>935</v>
       </c>
       <c r="B96" t="s">
-        <v>1037</v>
+        <v>936</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1038</v>
+        <v>937</v>
       </c>
       <c r="B97" t="s">
-        <v>1039</v>
+        <v>938</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1040</v>
+        <v>939</v>
       </c>
       <c r="B98">
         <v>72152</v>
@@ -10482,23 +10179,23 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1041</v>
+        <v>940</v>
       </c>
       <c r="B99" t="s">
-        <v>1042</v>
+        <v>941</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1043</v>
+        <v>942</v>
       </c>
       <c r="B100" t="s">
-        <v>1044</v>
+        <v>943</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1045</v>
+        <v>944</v>
       </c>
       <c r="B101">
         <v>56665</v>
@@ -10521,10 +10218,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1046</v>
+        <v>945</v>
       </c>
       <c r="B1" t="s">
-        <v>1047</v>
+        <v>946</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -10532,7 +10229,7 @@
         <v>0.1308138287</v>
       </c>
       <c r="B2" t="s">
-        <v>1048</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -10540,7 +10237,7 @@
         <v>0.25003813670000002</v>
       </c>
       <c r="B3" t="s">
-        <v>1049</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -10548,7 +10245,7 @@
         <v>-0.26750152859999998</v>
       </c>
       <c r="B4" t="s">
-        <v>1050</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -10556,7 +10253,7 @@
         <v>0.2083399497</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -10564,7 +10261,7 @@
         <v>0.14228027779999999</v>
       </c>
       <c r="B6" t="s">
-        <v>1052</v>
+        <v>951</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -10572,7 +10269,7 @@
         <v>0.13287849290000001</v>
       </c>
       <c r="B7" t="s">
-        <v>1053</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -10580,7 +10277,7 @@
         <v>-5.3739019300000003E-2</v>
       </c>
       <c r="B8" t="s">
-        <v>1054</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -10588,7 +10285,7 @@
         <v>-6.2435007700000003E-2</v>
       </c>
       <c r="B9" t="s">
-        <v>1055</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -10596,7 +10293,7 @@
         <v>-2.2413936999999998E-2</v>
       </c>
       <c r="B10" t="s">
-        <v>1056</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -10604,7 +10301,7 @@
         <v>-0.28279715300000002</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -10612,7 +10309,7 @@
         <v>0.26716291660000002</v>
       </c>
       <c r="B12" t="s">
-        <v>1058</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10620,7 +10317,7 @@
         <v>0.56584206469999998</v>
       </c>
       <c r="B13" t="s">
-        <v>1059</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -10628,7 +10325,7 @@
         <v>-0.25953054920000002</v>
       </c>
       <c r="B14" t="s">
-        <v>1060</v>
+        <v>959</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -10636,7 +10333,7 @@
         <v>0.1145327067</v>
       </c>
       <c r="B15" t="s">
-        <v>1061</v>
+        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -10644,7 +10341,7 @@
         <v>-0.3562782028</v>
       </c>
       <c r="B16" t="s">
-        <v>1062</v>
+        <v>961</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -10652,7 +10349,7 @@
         <v>0.14936374599999999</v>
       </c>
       <c r="B17" t="s">
-        <v>1063</v>
+        <v>962</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -10660,7 +10357,7 @@
         <v>-0.31616635329999998</v>
       </c>
       <c r="B18" t="s">
-        <v>1064</v>
+        <v>963</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -10668,7 +10365,7 @@
         <v>-2.4253973099999999E-2</v>
       </c>
       <c r="B19" t="s">
-        <v>1065</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -10676,7 +10373,7 @@
         <v>6.84189199E-2</v>
       </c>
       <c r="B20" t="s">
-        <v>1066</v>
+        <v>965</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -10684,7 +10381,7 @@
         <v>0.34097584819999999</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -10692,7 +10389,7 @@
         <v>-0.59237737229999998</v>
       </c>
       <c r="B22" t="s">
-        <v>1068</v>
+        <v>967</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -10700,7 +10397,7 @@
         <v>-0.21231696319999999</v>
       </c>
       <c r="B23" t="s">
-        <v>1069</v>
+        <v>968</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -10708,7 +10405,7 @@
         <v>-5.9439925999999997E-3</v>
       </c>
       <c r="B24" t="s">
-        <v>1070</v>
+        <v>969</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -10716,7 +10413,7 @@
         <v>7.4050135000000003E-2</v>
       </c>
       <c r="B25" t="s">
-        <v>1071</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -10724,7 +10421,7 @@
         <v>0.27524451820000001</v>
       </c>
       <c r="B26" t="s">
-        <v>1072</v>
+        <v>971</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -10732,7 +10429,7 @@
         <v>0.16667619980000001</v>
       </c>
       <c r="B27" t="s">
-        <v>1073</v>
+        <v>972</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -10740,7 +10437,7 @@
         <v>1.8210805600000001E-2</v>
       </c>
       <c r="B28" t="s">
-        <v>1074</v>
+        <v>973</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -10748,7 +10445,7 @@
         <v>0.37341182960000002</v>
       </c>
       <c r="B29" t="s">
-        <v>1075</v>
+        <v>974</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -10756,7 +10453,7 @@
         <v>-0.45419687590000002</v>
       </c>
       <c r="B30" t="s">
-        <v>1076</v>
+        <v>975</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -10764,7 +10461,7 @@
         <v>-0.3804962221</v>
       </c>
       <c r="B31" t="s">
-        <v>1077</v>
+        <v>976</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -10772,7 +10469,7 @@
         <v>8.0684541799999995E-2</v>
       </c>
       <c r="B32" t="s">
-        <v>1078</v>
+        <v>977</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -10780,7 +10477,7 @@
         <v>0.16538038660000001</v>
       </c>
       <c r="B33" t="s">
-        <v>1079</v>
+        <v>978</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -10788,7 +10485,7 @@
         <v>0.31698695380000003</v>
       </c>
       <c r="B34" t="s">
-        <v>1080</v>
+        <v>979</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -10796,7 +10493,7 @@
         <v>7.0800330999999999E-3</v>
       </c>
       <c r="B35" t="s">
-        <v>1081</v>
+        <v>980</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -10804,7 +10501,7 @@
         <v>0.30435148709999998</v>
       </c>
       <c r="B36" t="s">
-        <v>1082</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -10812,7 +10509,7 @@
         <v>0.50989469279999999</v>
       </c>
       <c r="B37" t="s">
-        <v>1083</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -10820,7 +10517,7 @@
         <v>-0.28824843309999998</v>
       </c>
       <c r="B38" t="s">
-        <v>1084</v>
+        <v>983</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -10828,7 +10525,7 @@
         <v>-0.13001348569999999</v>
       </c>
       <c r="B39" t="s">
-        <v>1085</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -10836,7 +10533,7 @@
         <v>0.31042991289999999</v>
       </c>
       <c r="B40" t="s">
-        <v>1086</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -10844,7 +10541,7 @@
         <v>-0.1753822797</v>
       </c>
       <c r="B41" t="s">
-        <v>1087</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -10852,7 +10549,7 @@
         <v>6.8159924400000002E-2</v>
       </c>
       <c r="B42" t="s">
-        <v>1088</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -10860,7 +10557,7 @@
         <v>-3.1238982700000001E-2</v>
       </c>
       <c r="B43" t="s">
-        <v>1089</v>
+        <v>988</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -10868,7 +10565,7 @@
         <v>9.0802016999999999E-2</v>
       </c>
       <c r="B44" t="s">
-        <v>1090</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -10876,7 +10573,7 @@
         <v>0.32585577129999999</v>
       </c>
       <c r="B45" t="s">
-        <v>1091</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -10884,7 +10581,7 @@
         <v>-0.34068232050000002</v>
       </c>
       <c r="B46" t="s">
-        <v>1092</v>
+        <v>991</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -10892,7 +10589,7 @@
         <v>0.1082807761</v>
       </c>
       <c r="B47" t="s">
-        <v>1093</v>
+        <v>992</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -10900,7 +10597,7 @@
         <v>-5.0385754999999997E-3</v>
       </c>
       <c r="B48" t="s">
-        <v>1094</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -10908,7 +10605,7 @@
         <v>0.16107464390000001</v>
       </c>
       <c r="B49" t="s">
-        <v>1095</v>
+        <v>994</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -10916,7 +10613,7 @@
         <v>0.1409404115</v>
       </c>
       <c r="B50" t="s">
-        <v>1096</v>
+        <v>995</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -10924,7 +10621,7 @@
         <v>0.1495166705</v>
       </c>
       <c r="B51" t="s">
-        <v>1097</v>
+        <v>996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -10932,7 +10629,7 @@
         <v>-6.2198718100000001E-2</v>
       </c>
       <c r="B52" t="s">
-        <v>1098</v>
+        <v>997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -10940,7 +10637,7 @@
         <v>0.55908148400000002</v>
       </c>
       <c r="B53" t="s">
-        <v>1099</v>
+        <v>998</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -10948,7 +10645,7 @@
         <v>-0.109851397</v>
       </c>
       <c r="B54" t="s">
-        <v>1100</v>
+        <v>999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -10956,7 +10653,7 @@
         <v>0.1249783329</v>
       </c>
       <c r="B55" t="s">
-        <v>1101</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -10964,7 +10661,7 @@
         <v>0.56362145429999999</v>
       </c>
       <c r="B56" t="s">
-        <v>1102</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -10972,7 +10669,7 @@
         <v>5.8666298800000002E-2</v>
       </c>
       <c r="B57" t="s">
-        <v>1103</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -10980,7 +10677,7 @@
         <v>5.3225546000000004E-3</v>
       </c>
       <c r="B58" t="s">
-        <v>1104</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -10988,7 +10685,7 @@
         <v>-0.13214176010000001</v>
       </c>
       <c r="B59" t="s">
-        <v>1105</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -10996,7 +10693,7 @@
         <v>0.49309277940000001</v>
       </c>
       <c r="B60" t="s">
-        <v>1106</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -11004,7 +10701,7 @@
         <v>-1.8641768E-3</v>
       </c>
       <c r="B61" t="s">
-        <v>1107</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -11012,7 +10709,7 @@
         <v>0.142959012</v>
       </c>
       <c r="B62" t="s">
-        <v>1108</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -11020,7 +10717,7 @@
         <v>-0.25410092690000002</v>
       </c>
       <c r="B63" t="s">
-        <v>1109</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -11028,7 +10725,7 @@
         <v>-0.91819396769999995</v>
       </c>
       <c r="B64" t="s">
-        <v>1110</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -11036,7 +10733,7 @@
         <v>-3.97979335E-2</v>
       </c>
       <c r="B65" t="s">
-        <v>1111</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -11044,7 +10741,7 @@
         <v>-0.48370511449999998</v>
       </c>
       <c r="B66" t="s">
-        <v>1112</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -11052,7 +10749,7 @@
         <v>-2.4961175000000001E-3</v>
       </c>
       <c r="B67" t="s">
-        <v>1113</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -11060,7 +10757,7 @@
         <v>0.14667578419999999</v>
       </c>
       <c r="B68" t="s">
-        <v>1114</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -11068,7 +10765,7 @@
         <v>0.30436151280000001</v>
       </c>
       <c r="B69" t="s">
-        <v>1115</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -11076,7 +10773,7 @@
         <v>-0.36177248020000002</v>
       </c>
       <c r="B70" t="s">
-        <v>1116</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -11084,7 +10781,7 @@
         <v>-0.21619538839999999</v>
       </c>
       <c r="B71" t="s">
-        <v>1117</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -11092,7 +10789,7 @@
         <v>0.28144273990000002</v>
       </c>
       <c r="B72" t="s">
-        <v>1118</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -11100,7 +10797,7 @@
         <v>-0.59840828889999997</v>
       </c>
       <c r="B73" t="s">
-        <v>1119</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -11108,7 +10805,7 @@
         <v>-7.7231069599999994E-2</v>
       </c>
       <c r="B74" t="s">
-        <v>1120</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -11116,7 +10813,7 @@
         <v>1.82150508E-2</v>
       </c>
       <c r="B75" t="s">
-        <v>1121</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -11124,7 +10821,7 @@
         <v>4.4640539600000001E-2</v>
       </c>
       <c r="B76" t="s">
-        <v>1122</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -11132,7 +10829,7 @@
         <v>-4.0916781499999999E-2</v>
       </c>
       <c r="B77" t="s">
-        <v>1123</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -11140,7 +10837,7 @@
         <v>-5.8307224800000002E-2</v>
       </c>
       <c r="B78" t="s">
-        <v>1124</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -11148,7 +10845,7 @@
         <v>0.25235283159999999</v>
       </c>
       <c r="B79" t="s">
-        <v>1125</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -11156,7 +10853,7 @@
         <v>0.1890900942</v>
       </c>
       <c r="B80" t="s">
-        <v>1126</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -11164,7 +10861,7 @@
         <v>-9.8800914899999995E-2</v>
       </c>
       <c r="B81" t="s">
-        <v>1127</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -11172,7 +10869,7 @@
         <v>0.10066938810000001</v>
       </c>
       <c r="B82" t="s">
-        <v>1128</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -11180,7 +10877,7 @@
         <v>-0.1162931209</v>
       </c>
       <c r="B83" t="s">
-        <v>1129</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -11188,7 +10885,7 @@
         <v>0.23515202139999999</v>
       </c>
       <c r="B84" t="s">
-        <v>1130</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -11196,7 +10893,7 @@
         <v>0.144238002</v>
       </c>
       <c r="B85" t="s">
-        <v>1131</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -11204,7 +10901,7 @@
         <v>-0.14263254989999999</v>
       </c>
       <c r="B86" t="s">
-        <v>1132</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -11212,7 +10909,7 @@
         <v>-0.35540925719999999</v>
       </c>
       <c r="B87" t="s">
-        <v>1133</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -11220,7 +10917,7 @@
         <v>0.34016484889999998</v>
       </c>
       <c r="B88" t="s">
-        <v>1134</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -11228,7 +10925,7 @@
         <v>-0.29762919510000002</v>
       </c>
       <c r="B89" t="s">
-        <v>1135</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -11236,7 +10933,7 @@
         <v>8.9732820000000008E-3</v>
       </c>
       <c r="B90" t="s">
-        <v>1136</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -11244,7 +10941,7 @@
         <v>-9.6588513099999995E-2</v>
       </c>
       <c r="B91" t="s">
-        <v>1137</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -11252,7 +10949,7 @@
         <v>-0.21821313240000001</v>
       </c>
       <c r="B92" t="s">
-        <v>1138</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -11260,7 +10957,7 @@
         <v>-0.52524423620000005</v>
       </c>
       <c r="B93" t="s">
-        <v>1139</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -11268,7 +10965,7 @@
         <v>0.24338385609999999</v>
       </c>
       <c r="B94" t="s">
-        <v>1140</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -11276,7 +10973,7 @@
         <v>-0.30015907510000001</v>
       </c>
       <c r="B95" t="s">
-        <v>1141</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -11284,7 +10981,7 @@
         <v>0.1614652805</v>
       </c>
       <c r="B96" t="s">
-        <v>1142</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -11292,7 +10989,7 @@
         <v>0.17576518150000001</v>
       </c>
       <c r="B97" t="s">
-        <v>1143</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -11300,7 +10997,7 @@
         <v>0.25168125400000002</v>
       </c>
       <c r="B98" t="s">
-        <v>1144</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -11308,7 +11005,7 @@
         <v>-0.2425762971</v>
       </c>
       <c r="B99" t="s">
-        <v>1145</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -11316,7 +11013,7 @@
         <v>-0.44849015959999999</v>
       </c>
       <c r="B100" t="s">
-        <v>1146</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -11324,7 +11021,7 @@
         <v>-0.1415879068</v>
       </c>
       <c r="B101" t="s">
-        <v>1147</v>
+        <v>1046</v>
       </c>
     </row>
   </sheetData>
@@ -11347,7 +11044,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1148</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -11870,27 +11567,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B1" t="s">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s">
-        <v>697</v>
+        <v>596</v>
       </c>
       <c r="D1" t="s">
-        <v>891</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>698</v>
+        <v>597</v>
       </c>
       <c r="C2" t="s">
-        <v>699</v>
+        <v>598</v>
       </c>
       <c r="D2">
         <v>1607121880999</v>
@@ -11898,13 +11595,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>701</v>
+        <v>600</v>
       </c>
       <c r="D3">
         <v>1623031087899</v>
@@ -11912,13 +11609,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>601</v>
       </c>
       <c r="C4" t="s">
-        <v>703</v>
+        <v>602</v>
       </c>
       <c r="D4">
         <v>1685032814999</v>
@@ -11926,13 +11623,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
       <c r="C5" t="s">
-        <v>705</v>
+        <v>604</v>
       </c>
       <c r="D5">
         <v>1666080937199</v>
@@ -11940,13 +11637,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>706</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>707</v>
+        <v>606</v>
       </c>
       <c r="D6">
         <v>1655021627899</v>
@@ -11954,13 +11651,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s">
-        <v>708</v>
+        <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>709</v>
+        <v>608</v>
       </c>
       <c r="D7">
         <v>1641060857799</v>
@@ -11968,13 +11665,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
-        <v>710</v>
+        <v>609</v>
       </c>
       <c r="C8" t="s">
-        <v>711</v>
+        <v>610</v>
       </c>
       <c r="D8">
         <v>1694101387699</v>
@@ -11982,13 +11679,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s">
-        <v>712</v>
+        <v>611</v>
       </c>
       <c r="C9" t="s">
-        <v>713</v>
+        <v>612</v>
       </c>
       <c r="D9">
         <v>1603052142099</v>
@@ -11996,13 +11693,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s">
-        <v>714</v>
+        <v>613</v>
       </c>
       <c r="C10" t="s">
-        <v>715</v>
+        <v>614</v>
       </c>
       <c r="D10">
         <v>1605082157299</v>
@@ -12010,13 +11707,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s">
-        <v>716</v>
+        <v>615</v>
       </c>
       <c r="C11" t="s">
-        <v>717</v>
+        <v>616</v>
       </c>
       <c r="D11">
         <v>1673111833799</v>
@@ -12024,13 +11721,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>718</v>
+        <v>617</v>
       </c>
       <c r="C12" t="s">
-        <v>719</v>
+        <v>618</v>
       </c>
       <c r="D12">
         <v>1658122390799</v>
@@ -12038,13 +11735,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="B13" t="s">
-        <v>720</v>
+        <v>619</v>
       </c>
       <c r="C13" t="s">
-        <v>721</v>
+        <v>620</v>
       </c>
       <c r="D13">
         <v>1638111216699</v>
@@ -12052,13 +11749,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s">
-        <v>722</v>
+        <v>621</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>622</v>
       </c>
       <c r="D14">
         <v>1689011611099</v>
@@ -12066,13 +11763,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B15" t="s">
-        <v>724</v>
+        <v>623</v>
       </c>
       <c r="C15" t="s">
-        <v>725</v>
+        <v>624</v>
       </c>
       <c r="D15">
         <v>1639022005399</v>
@@ -12080,13 +11777,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s">
-        <v>726</v>
+        <v>625</v>
       </c>
       <c r="C16" t="s">
-        <v>727</v>
+        <v>626</v>
       </c>
       <c r="D16">
         <v>1658072178499</v>
@@ -12094,13 +11791,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B17" t="s">
-        <v>728</v>
+        <v>627</v>
       </c>
       <c r="C17" t="s">
-        <v>729</v>
+        <v>628</v>
       </c>
       <c r="D17">
         <v>1607111569099</v>
@@ -12108,13 +11805,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B18" t="s">
-        <v>730</v>
+        <v>629</v>
       </c>
       <c r="C18" t="s">
-        <v>731</v>
+        <v>630</v>
       </c>
       <c r="D18">
         <v>1615121707299</v>
@@ -12122,13 +11819,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s">
-        <v>732</v>
+        <v>631</v>
       </c>
       <c r="C19" t="s">
-        <v>733</v>
+        <v>632</v>
       </c>
       <c r="D19">
         <v>1622050678099</v>
@@ -12136,13 +11833,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B20" t="s">
-        <v>734</v>
+        <v>633</v>
       </c>
       <c r="C20" t="s">
-        <v>735</v>
+        <v>634</v>
       </c>
       <c r="D20">
         <v>1677011491899</v>
@@ -12150,13 +11847,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s">
-        <v>736</v>
+        <v>635</v>
       </c>
       <c r="C21" t="s">
-        <v>737</v>
+        <v>636</v>
       </c>
       <c r="D21">
         <v>1672080511399</v>
@@ -12164,13 +11861,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B22" t="s">
-        <v>738</v>
+        <v>637</v>
       </c>
       <c r="C22" t="s">
-        <v>739</v>
+        <v>638</v>
       </c>
       <c r="D22">
         <v>1687011756999</v>
@@ -12178,13 +11875,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>639</v>
       </c>
       <c r="C23" t="s">
-        <v>741</v>
+        <v>640</v>
       </c>
       <c r="D23">
         <v>1672072307199</v>
@@ -12192,13 +11889,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B24" t="s">
-        <v>742</v>
+        <v>641</v>
       </c>
       <c r="C24" t="s">
-        <v>743</v>
+        <v>642</v>
       </c>
       <c r="D24">
         <v>1620121453699</v>
@@ -12206,13 +11903,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="B25" t="s">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="C25" t="s">
-        <v>745</v>
+        <v>644</v>
       </c>
       <c r="D25">
         <v>1679012870899</v>
@@ -12220,13 +11917,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="B26" t="s">
-        <v>746</v>
+        <v>645</v>
       </c>
       <c r="C26" t="s">
-        <v>747</v>
+        <v>646</v>
       </c>
       <c r="D26">
         <v>1623100866599</v>
@@ -12234,13 +11931,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="B27" t="s">
-        <v>748</v>
+        <v>647</v>
       </c>
       <c r="C27" t="s">
-        <v>749</v>
+        <v>648</v>
       </c>
       <c r="D27">
         <v>1634031662599</v>
@@ -12248,13 +11945,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B28" t="s">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="C28" t="s">
-        <v>751</v>
+        <v>650</v>
       </c>
       <c r="D28">
         <v>1614091211899</v>
@@ -12262,13 +11959,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="B29" t="s">
-        <v>752</v>
+        <v>651</v>
       </c>
       <c r="C29" t="s">
-        <v>753</v>
+        <v>652</v>
       </c>
       <c r="D29">
         <v>1646012292899</v>
@@ -12276,13 +11973,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B30" t="s">
-        <v>754</v>
+        <v>653</v>
       </c>
       <c r="C30" t="s">
-        <v>755</v>
+        <v>654</v>
       </c>
       <c r="D30">
         <v>1658030587199</v>
@@ -12290,13 +11987,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="B31" t="s">
-        <v>756</v>
+        <v>655</v>
       </c>
       <c r="C31" t="s">
-        <v>757</v>
+        <v>656</v>
       </c>
       <c r="D31">
         <v>1687110349999</v>
@@ -12304,13 +12001,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>557</v>
+        <v>525</v>
       </c>
       <c r="B32" t="s">
-        <v>758</v>
+        <v>657</v>
       </c>
       <c r="C32" t="s">
-        <v>759</v>
+        <v>658</v>
       </c>
       <c r="D32">
         <v>1625082940999</v>
@@ -12318,13 +12015,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="B33" t="s">
-        <v>760</v>
+        <v>659</v>
       </c>
       <c r="C33" t="s">
-        <v>761</v>
+        <v>660</v>
       </c>
       <c r="D33">
         <v>1674012531699</v>
@@ -12332,13 +12029,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="B34" t="s">
-        <v>762</v>
+        <v>661</v>
       </c>
       <c r="C34" t="s">
-        <v>763</v>
+        <v>662</v>
       </c>
       <c r="D34">
         <v>1631112020699</v>
@@ -12346,13 +12043,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>528</v>
       </c>
       <c r="B35" t="s">
-        <v>728</v>
+        <v>627</v>
       </c>
       <c r="C35" t="s">
-        <v>764</v>
+        <v>663</v>
       </c>
       <c r="D35">
         <v>1699041955899</v>
@@ -12360,13 +12057,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>565</v>
+        <v>529</v>
       </c>
       <c r="B36" t="s">
-        <v>765</v>
+        <v>664</v>
       </c>
       <c r="C36" t="s">
-        <v>766</v>
+        <v>665</v>
       </c>
       <c r="D36">
         <v>1607080709399</v>
@@ -12374,13 +12071,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="B37" t="s">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="C37" t="s">
-        <v>768</v>
+        <v>667</v>
       </c>
       <c r="D37">
         <v>1655082431999</v>
@@ -12388,13 +12085,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="B38" t="s">
-        <v>769</v>
+        <v>668</v>
       </c>
       <c r="C38" t="s">
-        <v>770</v>
+        <v>669</v>
       </c>
       <c r="D38">
         <v>1665110979999</v>
@@ -12402,13 +12099,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="B39" t="s">
-        <v>771</v>
+        <v>670</v>
       </c>
       <c r="C39" t="s">
-        <v>772</v>
+        <v>671</v>
       </c>
       <c r="D39">
         <v>1605080854999</v>
@@ -12416,13 +12113,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="B40" t="s">
-        <v>773</v>
+        <v>672</v>
       </c>
       <c r="C40" t="s">
-        <v>774</v>
+        <v>673</v>
       </c>
       <c r="D40">
         <v>1610100653599</v>
@@ -12430,13 +12127,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>674</v>
       </c>
       <c r="C41" t="s">
-        <v>776</v>
+        <v>675</v>
       </c>
       <c r="D41">
         <v>1603040284399</v>
@@ -12444,13 +12141,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>577</v>
+        <v>535</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>676</v>
       </c>
       <c r="C42" t="s">
-        <v>778</v>
+        <v>677</v>
       </c>
       <c r="D42">
         <v>1619011365199</v>
@@ -12458,13 +12155,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>579</v>
+        <v>536</v>
       </c>
       <c r="B43" t="s">
-        <v>779</v>
+        <v>678</v>
       </c>
       <c r="C43" t="s">
-        <v>780</v>
+        <v>679</v>
       </c>
       <c r="D43">
         <v>1692070436699</v>
@@ -12472,13 +12169,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="B44" t="s">
-        <v>781</v>
+        <v>680</v>
       </c>
       <c r="C44" t="s">
-        <v>782</v>
+        <v>681</v>
       </c>
       <c r="D44">
         <v>1647120818299</v>
@@ -12486,13 +12183,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>583</v>
+        <v>538</v>
       </c>
       <c r="B45" t="s">
-        <v>765</v>
+        <v>664</v>
       </c>
       <c r="C45" t="s">
-        <v>783</v>
+        <v>682</v>
       </c>
       <c r="D45">
         <v>1612012603699</v>
@@ -12500,13 +12197,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>585</v>
+        <v>539</v>
       </c>
       <c r="B46" t="s">
-        <v>784</v>
+        <v>683</v>
       </c>
       <c r="C46" t="s">
-        <v>785</v>
+        <v>684</v>
       </c>
       <c r="D46">
         <v>1655122780399</v>
@@ -12514,13 +12211,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>587</v>
+        <v>540</v>
       </c>
       <c r="B47" t="s">
-        <v>786</v>
+        <v>685</v>
       </c>
       <c r="C47" t="s">
-        <v>787</v>
+        <v>686</v>
       </c>
       <c r="D47">
         <v>1616121565999</v>
@@ -12528,13 +12225,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>589</v>
+        <v>541</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>687</v>
       </c>
       <c r="C48" t="s">
-        <v>789</v>
+        <v>688</v>
       </c>
       <c r="D48">
         <v>1657010370899</v>
@@ -12542,13 +12239,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>591</v>
+        <v>542</v>
       </c>
       <c r="B49" t="s">
-        <v>790</v>
+        <v>689</v>
       </c>
       <c r="C49" t="s">
-        <v>791</v>
+        <v>690</v>
       </c>
       <c r="D49">
         <v>1684080166599</v>
@@ -12556,13 +12253,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="B50" t="s">
-        <v>792</v>
+        <v>691</v>
       </c>
       <c r="C50" t="s">
-        <v>793</v>
+        <v>692</v>
       </c>
       <c r="D50">
         <v>1652120137599</v>
@@ -12570,13 +12267,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
       <c r="B51" t="s">
-        <v>794</v>
+        <v>693</v>
       </c>
       <c r="C51" t="s">
-        <v>795</v>
+        <v>694</v>
       </c>
       <c r="D51">
         <v>1658012243399</v>
@@ -12584,13 +12281,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="B52" t="s">
-        <v>796</v>
+        <v>695</v>
       </c>
       <c r="C52" t="s">
-        <v>797</v>
+        <v>696</v>
       </c>
       <c r="D52">
         <v>1674082264799</v>
@@ -12598,13 +12295,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="B53" t="s">
-        <v>798</v>
+        <v>697</v>
       </c>
       <c r="C53" t="s">
-        <v>799</v>
+        <v>698</v>
       </c>
       <c r="D53">
         <v>1655072001199</v>
@@ -12612,13 +12309,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>601</v>
+        <v>547</v>
       </c>
       <c r="B54" t="s">
-        <v>800</v>
+        <v>699</v>
       </c>
       <c r="C54" t="s">
-        <v>801</v>
+        <v>700</v>
       </c>
       <c r="D54">
         <v>1671091371299</v>
@@ -12626,13 +12323,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>603</v>
+        <v>548</v>
       </c>
       <c r="B55" t="s">
-        <v>802</v>
+        <v>701</v>
       </c>
       <c r="C55" t="s">
-        <v>803</v>
+        <v>702</v>
       </c>
       <c r="D55">
         <v>1654030766899</v>
@@ -12640,13 +12337,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="B56" t="s">
-        <v>804</v>
+        <v>703</v>
       </c>
       <c r="C56" t="s">
-        <v>805</v>
+        <v>704</v>
       </c>
       <c r="D56">
         <v>1639122881499</v>
@@ -12654,13 +12351,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="B57" t="s">
-        <v>806</v>
+        <v>705</v>
       </c>
       <c r="C57" t="s">
-        <v>807</v>
+        <v>706</v>
       </c>
       <c r="D57">
         <v>1665101150599</v>
@@ -12668,13 +12365,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="B58" t="s">
-        <v>808</v>
+        <v>707</v>
       </c>
       <c r="C58" t="s">
-        <v>809</v>
+        <v>708</v>
       </c>
       <c r="D58">
         <v>1686032821699</v>
@@ -12682,13 +12379,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>611</v>
+        <v>552</v>
       </c>
       <c r="B59" t="s">
-        <v>810</v>
+        <v>709</v>
       </c>
       <c r="C59" t="s">
-        <v>811</v>
+        <v>710</v>
       </c>
       <c r="D59">
         <v>1634030182199</v>
@@ -12696,13 +12393,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="B60" t="s">
-        <v>812</v>
+        <v>711</v>
       </c>
       <c r="C60" t="s">
-        <v>813</v>
+        <v>712</v>
       </c>
       <c r="D60">
         <v>1674020486699</v>
@@ -12710,13 +12407,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="B61" t="s">
-        <v>814</v>
+        <v>713</v>
       </c>
       <c r="C61" t="s">
-        <v>815</v>
+        <v>714</v>
       </c>
       <c r="D61">
         <v>1617051077399</v>
@@ -12724,13 +12421,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>617</v>
+        <v>555</v>
       </c>
       <c r="B62" t="s">
-        <v>816</v>
+        <v>715</v>
       </c>
       <c r="C62" t="s">
-        <v>817</v>
+        <v>716</v>
       </c>
       <c r="D62">
         <v>1672071314899</v>
@@ -12738,13 +12435,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>619</v>
+        <v>556</v>
       </c>
       <c r="B63" t="s">
-        <v>818</v>
+        <v>717</v>
       </c>
       <c r="C63" t="s">
-        <v>819</v>
+        <v>718</v>
       </c>
       <c r="D63">
         <v>1682050712799</v>
@@ -12752,13 +12449,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>621</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
-        <v>820</v>
+        <v>719</v>
       </c>
       <c r="C64" t="s">
-        <v>821</v>
+        <v>720</v>
       </c>
       <c r="D64">
         <v>1648121933999</v>
@@ -12766,13 +12463,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>623</v>
+        <v>558</v>
       </c>
       <c r="B65" t="s">
-        <v>822</v>
+        <v>721</v>
       </c>
       <c r="C65" t="s">
-        <v>823</v>
+        <v>722</v>
       </c>
       <c r="D65">
         <v>1662052845499</v>
@@ -12780,13 +12477,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>625</v>
+        <v>559</v>
       </c>
       <c r="B66" t="s">
-        <v>824</v>
+        <v>723</v>
       </c>
       <c r="C66" t="s">
-        <v>825</v>
+        <v>724</v>
       </c>
       <c r="D66">
         <v>1689010445699</v>
@@ -12794,13 +12491,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>627</v>
+        <v>560</v>
       </c>
       <c r="B67" t="s">
-        <v>736</v>
+        <v>635</v>
       </c>
       <c r="C67" t="s">
-        <v>826</v>
+        <v>725</v>
       </c>
       <c r="D67">
         <v>1697081836599</v>
@@ -12808,13 +12505,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>629</v>
+        <v>561</v>
       </c>
       <c r="B68" t="s">
-        <v>827</v>
+        <v>726</v>
       </c>
       <c r="C68" t="s">
-        <v>828</v>
+        <v>727</v>
       </c>
       <c r="D68">
         <v>1687051926499</v>
@@ -12822,13 +12519,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>631</v>
+        <v>562</v>
       </c>
       <c r="B69" t="s">
-        <v>829</v>
+        <v>728</v>
       </c>
       <c r="C69" t="s">
-        <v>830</v>
+        <v>729</v>
       </c>
       <c r="D69">
         <v>1604031957899</v>
@@ -12836,13 +12533,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="B70" t="s">
-        <v>831</v>
+        <v>730</v>
       </c>
       <c r="C70" t="s">
-        <v>832</v>
+        <v>731</v>
       </c>
       <c r="D70">
         <v>1658021937199</v>
@@ -12850,13 +12547,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>635</v>
+        <v>564</v>
       </c>
       <c r="B71" t="s">
-        <v>833</v>
+        <v>732</v>
       </c>
       <c r="C71" t="s">
-        <v>834</v>
+        <v>733</v>
       </c>
       <c r="D71">
         <v>1691062764899</v>
@@ -12864,13 +12561,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="B72" t="s">
-        <v>835</v>
+        <v>734</v>
       </c>
       <c r="C72" t="s">
-        <v>836</v>
+        <v>735</v>
       </c>
       <c r="D72">
         <v>1601111989899</v>
@@ -12878,13 +12575,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>639</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s">
-        <v>746</v>
+        <v>645</v>
       </c>
       <c r="C73" t="s">
-        <v>837</v>
+        <v>736</v>
       </c>
       <c r="D73">
         <v>1609102941199</v>
@@ -12892,13 +12589,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>641</v>
+        <v>567</v>
       </c>
       <c r="B74" t="s">
-        <v>838</v>
+        <v>737</v>
       </c>
       <c r="C74" t="s">
-        <v>839</v>
+        <v>738</v>
       </c>
       <c r="D74">
         <v>1673021496099</v>
@@ -12906,13 +12603,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="B75" t="s">
-        <v>840</v>
+        <v>739</v>
       </c>
       <c r="C75" t="s">
-        <v>841</v>
+        <v>740</v>
       </c>
       <c r="D75">
         <v>1669080875799</v>
@@ -12920,13 +12617,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>645</v>
+        <v>569</v>
       </c>
       <c r="B76" t="s">
-        <v>769</v>
+        <v>668</v>
       </c>
       <c r="C76" t="s">
-        <v>842</v>
+        <v>741</v>
       </c>
       <c r="D76">
         <v>1663022523199</v>
@@ -12934,13 +12631,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
       <c r="B77" t="s">
-        <v>843</v>
+        <v>742</v>
       </c>
       <c r="C77" t="s">
-        <v>844</v>
+        <v>743</v>
       </c>
       <c r="D77">
         <v>1660080172799</v>
@@ -12948,13 +12645,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>649</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>845</v>
+        <v>744</v>
       </c>
       <c r="C78" t="s">
-        <v>846</v>
+        <v>745</v>
       </c>
       <c r="D78">
         <v>1655020541199</v>
@@ -12962,13 +12659,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>651</v>
+        <v>572</v>
       </c>
       <c r="B79" t="s">
-        <v>847</v>
+        <v>746</v>
       </c>
       <c r="C79" t="s">
-        <v>848</v>
+        <v>747</v>
       </c>
       <c r="D79">
         <v>1609070114099</v>
@@ -12976,13 +12673,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>653</v>
+        <v>573</v>
       </c>
       <c r="B80" t="s">
-        <v>767</v>
+        <v>666</v>
       </c>
       <c r="C80" t="s">
-        <v>849</v>
+        <v>748</v>
       </c>
       <c r="D80">
         <v>1677050564599</v>
@@ -12990,13 +12687,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>655</v>
+        <v>574</v>
       </c>
       <c r="B81" t="s">
-        <v>850</v>
+        <v>749</v>
       </c>
       <c r="C81" t="s">
-        <v>851</v>
+        <v>750</v>
       </c>
       <c r="D81">
         <v>1687060542299</v>
@@ -13004,13 +12701,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>657</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s">
-        <v>852</v>
+        <v>751</v>
       </c>
       <c r="C82" t="s">
-        <v>853</v>
+        <v>752</v>
       </c>
       <c r="D82">
         <v>1684060307299</v>
@@ -13018,13 +12715,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>659</v>
+        <v>576</v>
       </c>
       <c r="B83" t="s">
-        <v>854</v>
+        <v>753</v>
       </c>
       <c r="C83" t="s">
-        <v>855</v>
+        <v>754</v>
       </c>
       <c r="D83">
         <v>1631051848399</v>
@@ -13032,13 +12729,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>661</v>
+        <v>577</v>
       </c>
       <c r="B84" t="s">
-        <v>856</v>
+        <v>755</v>
       </c>
       <c r="C84" t="s">
-        <v>857</v>
+        <v>756</v>
       </c>
       <c r="D84">
         <v>1665070433599</v>
@@ -13046,13 +12743,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>663</v>
+        <v>578</v>
       </c>
       <c r="B85" t="s">
-        <v>858</v>
+        <v>757</v>
       </c>
       <c r="C85" t="s">
-        <v>859</v>
+        <v>758</v>
       </c>
       <c r="D85">
         <v>1660081079799</v>
@@ -13060,13 +12757,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="B86" t="s">
-        <v>822</v>
+        <v>721</v>
       </c>
       <c r="C86" t="s">
-        <v>860</v>
+        <v>759</v>
       </c>
       <c r="D86">
         <v>1691102922299</v>
@@ -13074,13 +12771,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>667</v>
+        <v>580</v>
       </c>
       <c r="B87" t="s">
-        <v>861</v>
+        <v>760</v>
       </c>
       <c r="C87" t="s">
-        <v>862</v>
+        <v>761</v>
       </c>
       <c r="D87">
         <v>1648031268299</v>
@@ -13088,13 +12785,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>669</v>
+        <v>581</v>
       </c>
       <c r="B88" t="s">
-        <v>863</v>
+        <v>762</v>
       </c>
       <c r="C88" t="s">
-        <v>864</v>
+        <v>763</v>
       </c>
       <c r="D88">
         <v>1660121706999</v>
@@ -13102,13 +12799,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>671</v>
+        <v>582</v>
       </c>
       <c r="B89" t="s">
-        <v>865</v>
+        <v>764</v>
       </c>
       <c r="C89" t="s">
-        <v>866</v>
+        <v>765</v>
       </c>
       <c r="D89">
         <v>1601043002999</v>
@@ -13116,13 +12813,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="B90" t="s">
-        <v>867</v>
+        <v>766</v>
       </c>
       <c r="C90" t="s">
-        <v>868</v>
+        <v>767</v>
       </c>
       <c r="D90">
         <v>1637021724299</v>
@@ -13130,13 +12827,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>675</v>
+        <v>584</v>
       </c>
       <c r="B91" t="s">
-        <v>869</v>
+        <v>768</v>
       </c>
       <c r="C91" t="s">
-        <v>870</v>
+        <v>769</v>
       </c>
       <c r="D91">
         <v>1630021241999</v>
@@ -13144,13 +12841,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>677</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s">
-        <v>871</v>
+        <v>770</v>
       </c>
       <c r="C92" t="s">
-        <v>872</v>
+        <v>771</v>
       </c>
       <c r="D92">
         <v>1640051819799</v>
@@ -13158,13 +12855,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>679</v>
+        <v>586</v>
       </c>
       <c r="B93" t="s">
-        <v>873</v>
+        <v>772</v>
       </c>
       <c r="C93" t="s">
-        <v>874</v>
+        <v>773</v>
       </c>
       <c r="D93">
         <v>1674020754899</v>
@@ -13172,13 +12869,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>681</v>
+        <v>587</v>
       </c>
       <c r="B94" t="s">
-        <v>875</v>
+        <v>774</v>
       </c>
       <c r="C94" t="s">
-        <v>876</v>
+        <v>775</v>
       </c>
       <c r="D94">
         <v>1667091440499</v>
@@ -13186,13 +12883,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>683</v>
+        <v>588</v>
       </c>
       <c r="B95" t="s">
-        <v>877</v>
+        <v>776</v>
       </c>
       <c r="C95" t="s">
-        <v>878</v>
+        <v>777</v>
       </c>
       <c r="D95">
         <v>1683052824899</v>
@@ -13200,13 +12897,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>685</v>
+        <v>589</v>
       </c>
       <c r="B96" t="s">
-        <v>879</v>
+        <v>778</v>
       </c>
       <c r="C96" t="s">
-        <v>880</v>
+        <v>779</v>
       </c>
       <c r="D96">
         <v>1681050245899</v>
@@ -13214,13 +12911,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>687</v>
+        <v>590</v>
       </c>
       <c r="B97" t="s">
-        <v>881</v>
+        <v>780</v>
       </c>
       <c r="C97" t="s">
-        <v>882</v>
+        <v>781</v>
       </c>
       <c r="D97">
         <v>1654020488899</v>
@@ -13228,13 +12925,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>689</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s">
-        <v>883</v>
+        <v>782</v>
       </c>
       <c r="C98" t="s">
-        <v>884</v>
+        <v>783</v>
       </c>
       <c r="D98">
         <v>1654032657899</v>
@@ -13242,13 +12939,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>691</v>
+        <v>592</v>
       </c>
       <c r="B99" t="s">
-        <v>885</v>
+        <v>784</v>
       </c>
       <c r="C99" t="s">
-        <v>886</v>
+        <v>785</v>
       </c>
       <c r="D99">
         <v>1622080432399</v>
@@ -13256,13 +12953,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>693</v>
+        <v>593</v>
       </c>
       <c r="B100" t="s">
-        <v>887</v>
+        <v>786</v>
       </c>
       <c r="C100" t="s">
-        <v>888</v>
+        <v>787</v>
       </c>
       <c r="D100">
         <v>1680090637999</v>
@@ -13270,13 +12967,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>695</v>
+        <v>594</v>
       </c>
       <c r="B101" t="s">
-        <v>889</v>
+        <v>788</v>
       </c>
       <c r="C101" t="s">
-        <v>890</v>
+        <v>789</v>
       </c>
       <c r="D101">
         <v>1610051675699</v>
